--- a/TABELA_MATERIA_FOLHA_COMPLETA_TRANSPOSTA.xlsx
+++ b/TABELA_MATERIA_FOLHA_COMPLETA_TRANSPOSTA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus\Desktop\Unb\TG\GitHub\Enade_TG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="232">
   <si>
     <t>alunos brancos segundo grau escola publica</t>
   </si>
@@ -685,12 +685,48 @@
   <si>
     <t>Caracteristicas44</t>
   </si>
+  <si>
+    <t>alunos brancos federal segundo grau escola particular</t>
+  </si>
+  <si>
+    <t>alunos negros federal segundo grau escola particular</t>
+  </si>
+  <si>
+    <t>alunos pardos federal segundo grau escola particular</t>
+  </si>
+  <si>
+    <t>alunos brancos faculdade particular segundo grau escola publica</t>
+  </si>
+  <si>
+    <t>alunos negros faculdade particular segundo grau escola publica</t>
+  </si>
+  <si>
+    <t>alunos pardos faculdade particular segundo grau escola publica</t>
+  </si>
+  <si>
+    <t>alunos brancos federal segundo grau escola particular acao afirmativa</t>
+  </si>
+  <si>
+    <t>alunos negros federal segundo grau escola particular acao afirmativa</t>
+  </si>
+  <si>
+    <t>alunos pardos federal segundo grau escola particular acao afirmativa</t>
+  </si>
+  <si>
+    <t>alunos brancos federal segundo grau escola particular sem acao afirmativa</t>
+  </si>
+  <si>
+    <t>alunos negros federal segundo grau escola particular sem acao afirmativa</t>
+  </si>
+  <si>
+    <t>alunos pardos federal segundo grau escola particular sem acao afirmativa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,6 +740,12 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -768,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -788,53 +830,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="179">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5513,6 +5516,48 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5527,185 +5572,185 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:FT45" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="178">
-  <autoFilter ref="A1:FT45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:FT57" totalsRowShown="0" headerRowDxfId="178" dataDxfId="177" tableBorderDxfId="176">
+  <autoFilter ref="A1:FT57"/>
   <tableColumns count="176">
-    <tableColumn id="1" name="Caracteristicas" dataDxfId="177"/>
-    <tableColumn id="2" name="ARQUITETURA E URBANISMO_fg" dataDxfId="176"/>
-    <tableColumn id="3" name="ARQUITETURA E URBANISMO_ce" dataDxfId="175"/>
-    <tableColumn id="4" name="ARQUITETURA E URBANISMO_ger" dataDxfId="174"/>
-    <tableColumn id="5" name="Caracteristicas2" dataDxfId="173"/>
-    <tableColumn id="6" name="ARTES VISUAIS (LICENCIATURA)_fg" dataDxfId="172"/>
-    <tableColumn id="7" name="ARTES VISUAIS (LICENCIATURA)_ce" dataDxfId="171"/>
-    <tableColumn id="8" name="ARTES VISUAIS (LICENCIATURA)_ger" dataDxfId="170"/>
-    <tableColumn id="9" name="Caracteristicas3" dataDxfId="169"/>
-    <tableColumn id="10" name="CIENCIA DA COMPUTACAO (BACHARELADO)_fg" dataDxfId="168"/>
-    <tableColumn id="11" name="CIENCIA DA COMPUTACAO (BACHARELADO)_ce" dataDxfId="167"/>
-    <tableColumn id="12" name="CIENCIA DA COMPUTACAO (BACHARELADO)_ger" dataDxfId="166"/>
-    <tableColumn id="13" name="Caracteristicas4" dataDxfId="165"/>
-    <tableColumn id="14" name="CIENCIA DA COMPUTACAO (LICENCIATURA)_fg" dataDxfId="164"/>
-    <tableColumn id="15" name="CIENCIA DA COMPUTACAO (LICENCIATURA)_ce" dataDxfId="163"/>
-    <tableColumn id="16" name="CIENCIA DA COMPUTACAO (LICENCIATURA)_ger" dataDxfId="162"/>
-    <tableColumn id="17" name="Caracteristicas5" dataDxfId="161"/>
-    <tableColumn id="18" name="CIENCIAS BIOLOGICAS (BACHARELADO)_fg" dataDxfId="160"/>
-    <tableColumn id="19" name="CIENCIAS BIOLOGICAS (BACHARELADO)_ce" dataDxfId="159"/>
-    <tableColumn id="20" name="CIENCIAS BIOLOGICAS (BACHARELADO)_ger" dataDxfId="158"/>
-    <tableColumn id="21" name="Caracteristicas6" dataDxfId="157"/>
-    <tableColumn id="22" name="CIENCIAS BIOLOGICAS (LICENCIATURA)_fg" dataDxfId="156"/>
-    <tableColumn id="23" name="CIENCIAS BIOLOGICAS (LICENCIATURA)_ce" dataDxfId="155"/>
-    <tableColumn id="24" name="CIENCIAS BIOLOGICAS (LICENCIATURA)_ger" dataDxfId="154"/>
-    <tableColumn id="25" name="Caracteristicas7" dataDxfId="153"/>
-    <tableColumn id="26" name="CIENCIAS SOCIAIS (BACHARELADO)_fg" dataDxfId="152"/>
-    <tableColumn id="27" name="CIENCIAS SOCIAIS (BACHARELADO)_ce" dataDxfId="151"/>
-    <tableColumn id="28" name="CIENCIAS SOCIAIS (BACHARELADO)_ger" dataDxfId="150"/>
-    <tableColumn id="29" name="Caracteristicas8" dataDxfId="149"/>
-    <tableColumn id="30" name="CIENCIAS SOCIAIS (LICENCIATURA)_fg" dataDxfId="148"/>
-    <tableColumn id="31" name="CIENCIAS SOCIAIS (LICENCIATURA)_ce" dataDxfId="147"/>
-    <tableColumn id="32" name="CIENCIAS SOCIAIS (LICENCIATURA)_ger" dataDxfId="146"/>
-    <tableColumn id="33" name="Caracteristicas9" dataDxfId="145"/>
-    <tableColumn id="34" name="EDUCACAO FISICA (LICENCIATURA)_fg" dataDxfId="144"/>
-    <tableColumn id="35" name="EDUCACAO FISICA (LICENCIATURA)_ce" dataDxfId="143"/>
-    <tableColumn id="36" name="EDUCACAO FISICA (LICENCIATURA)_ger" dataDxfId="142"/>
-    <tableColumn id="37" name="Caracteristicas10" dataDxfId="141"/>
-    <tableColumn id="38" name="ENGENHARIA AMBIENTAL_fg" dataDxfId="140"/>
-    <tableColumn id="39" name="ENGENHARIA AMBIENTAL_ce" dataDxfId="139"/>
-    <tableColumn id="40" name="ENGENHARIA AMBIENTAL_ger" dataDxfId="138"/>
-    <tableColumn id="41" name="Caracteristicas11" dataDxfId="137"/>
-    <tableColumn id="42" name="ENGENHARIA CIVIL_fg" dataDxfId="136"/>
-    <tableColumn id="43" name="ENGENHARIA CIVIL_ce" dataDxfId="135"/>
-    <tableColumn id="44" name="ENGENHARIA CIVIL_ger" dataDxfId="134"/>
-    <tableColumn id="45" name="Caracteristicas12" dataDxfId="133"/>
-    <tableColumn id="46" name="ENGENHARIA DE ALIMENTOS_fg" dataDxfId="132"/>
-    <tableColumn id="47" name="ENGENHARIA DE ALIMENTOS_ce" dataDxfId="131"/>
-    <tableColumn id="48" name="ENGENHARIA DE ALIMENTOS_ger" dataDxfId="130"/>
-    <tableColumn id="49" name="Caracteristicas13" dataDxfId="129"/>
-    <tableColumn id="50" name="ENGENHARIA DE COMPUTACAO_fg" dataDxfId="128"/>
-    <tableColumn id="51" name="ENGENHARIA DE COMPUTACAO_ce" dataDxfId="127"/>
-    <tableColumn id="52" name="ENGENHARIA DE COMPUTACAO_ger" dataDxfId="126"/>
-    <tableColumn id="53" name="Caracteristicas14" dataDxfId="125"/>
-    <tableColumn id="54" name="ENGENHARIA DE CONTROLE E AUTOMACAO_fg" dataDxfId="124"/>
-    <tableColumn id="55" name="ENGENHARIA DE CONTROLE E AUTOMACAO_ce" dataDxfId="123"/>
-    <tableColumn id="56" name="ENGENHARIA DE CONTROLE E AUTOMACAO_ger" dataDxfId="122"/>
-    <tableColumn id="57" name="Caracteristicas15" dataDxfId="121"/>
-    <tableColumn id="58" name="ENGENHARIA DE PRODUCAO_fg" dataDxfId="120"/>
-    <tableColumn id="59" name="ENGENHARIA DE PRODUCAO_ce" dataDxfId="119"/>
-    <tableColumn id="60" name="ENGENHARIA DE PRODUCAO_ger" dataDxfId="118"/>
-    <tableColumn id="61" name="Caracteristicas16" dataDxfId="117"/>
-    <tableColumn id="62" name="ENGENHARIA ELETRICA_fg" dataDxfId="116"/>
-    <tableColumn id="63" name="ENGENHARIA ELETRICA_ce" dataDxfId="115"/>
-    <tableColumn id="64" name="ENGENHARIA ELETRICA_ger" dataDxfId="114"/>
-    <tableColumn id="65" name="Caracteristicas17" dataDxfId="113"/>
-    <tableColumn id="66" name="ENGENHARIA FLORESTAL_fg" dataDxfId="112"/>
-    <tableColumn id="67" name="ENGENHARIA FLORESTAL_ce" dataDxfId="111"/>
-    <tableColumn id="68" name="ENGENHARIA FLORESTAL_ger" dataDxfId="110"/>
-    <tableColumn id="69" name="Caracteristicas18" dataDxfId="109"/>
-    <tableColumn id="70" name="ENGENHARIA MECANICA_fg" dataDxfId="108"/>
-    <tableColumn id="71" name="ENGENHARIA MECANICA_ce" dataDxfId="107"/>
-    <tableColumn id="72" name="ENGENHARIA MECANICA_ger" dataDxfId="106"/>
-    <tableColumn id="73" name="Caracteristicas19" dataDxfId="105"/>
-    <tableColumn id="74" name="ENGENHARIA QUIMICA_fg" dataDxfId="104"/>
-    <tableColumn id="75" name="ENGENHARIA QUIMICA_ce" dataDxfId="103"/>
-    <tableColumn id="76" name="ENGENHARIA QUIMICA_ger" dataDxfId="102"/>
-    <tableColumn id="77" name="Caracteristicas20" dataDxfId="101"/>
-    <tableColumn id="78" name="ENGENHARIA_fg" dataDxfId="100"/>
-    <tableColumn id="79" name="ENGENHARIA_ce" dataDxfId="99"/>
-    <tableColumn id="80" name="ENGENHARIA_ger" dataDxfId="98"/>
-    <tableColumn id="81" name="Caracteristicas21" dataDxfId="97"/>
-    <tableColumn id="82" name="FILOSOFIA (BACHARELADO)_fg" dataDxfId="96"/>
-    <tableColumn id="83" name="FILOSOFIA (BACHARELADO)_ce" dataDxfId="95"/>
-    <tableColumn id="84" name="FILOSOFIA (BACHARELADO)_ger" dataDxfId="94"/>
-    <tableColumn id="85" name="Caracteristicas22" dataDxfId="93"/>
-    <tableColumn id="86" name="FILOSOFIA (LICENCIATURA)_fg" dataDxfId="92"/>
-    <tableColumn id="87" name="FILOSOFIA (LICENCIATURA)_ce" dataDxfId="91"/>
-    <tableColumn id="88" name="FILOSOFIA (LICENCIATURA)_ger" dataDxfId="90"/>
-    <tableColumn id="89" name="Caracteristicas23" dataDxfId="89"/>
-    <tableColumn id="90" name="FISICA (BACHARELADO)_fg" dataDxfId="88"/>
-    <tableColumn id="91" name="FISICA (BACHARELADO)_ce" dataDxfId="87"/>
-    <tableColumn id="92" name="FISICA (BACHARELADO)_ger" dataDxfId="86"/>
-    <tableColumn id="93" name="Caracteristicas24" dataDxfId="85"/>
-    <tableColumn id="94" name="FISICA (LICENCIATURA)_fg" dataDxfId="84"/>
-    <tableColumn id="95" name="FISICA (LICENCIATURA)_ce" dataDxfId="83"/>
-    <tableColumn id="96" name="FISICA (LICENCIATURA)_ger" dataDxfId="82"/>
-    <tableColumn id="97" name="Caracteristicas25" dataDxfId="81"/>
-    <tableColumn id="98" name="GEOGRAFIA (BACHARELADO)_fg" dataDxfId="80"/>
-    <tableColumn id="99" name="GEOGRAFIA (BACHARELADO)_ce" dataDxfId="79"/>
-    <tableColumn id="100" name="GEOGRAFIA (BACHARELADO)_ger" dataDxfId="78"/>
-    <tableColumn id="101" name="Caracteristicas26" dataDxfId="77"/>
-    <tableColumn id="102" name="GEOGRAFIA (LICENCIATURA)_fg" dataDxfId="76"/>
-    <tableColumn id="103" name="GEOGRAFIA (LICENCIATURA)_ce" dataDxfId="75"/>
-    <tableColumn id="104" name="GEOGRAFIA (LICENCIATURA)_ger" dataDxfId="74"/>
-    <tableColumn id="105" name="Caracteristicas27" dataDxfId="73"/>
-    <tableColumn id="106" name="HISTORIA (BACHARELADO)_fg" dataDxfId="72"/>
-    <tableColumn id="107" name="HISTORIA (BACHARELADO)_ce" dataDxfId="71"/>
-    <tableColumn id="108" name="HISTORIA (BACHARELADO)_ger" dataDxfId="70"/>
-    <tableColumn id="109" name="Caracteristicas28" dataDxfId="69"/>
-    <tableColumn id="110" name="HISTORIA (LICENCIATURA)_fg" dataDxfId="68"/>
-    <tableColumn id="111" name="HISTORIA (LICENCIATURA)_ce" dataDxfId="67"/>
-    <tableColumn id="112" name="HISTORIA (LICENCIATURA)_ger" dataDxfId="66"/>
-    <tableColumn id="113" name="Caracteristicas29" dataDxfId="65"/>
-    <tableColumn id="114" name="LETRAS-PORTUGUES (BACHARELADO)_fg" dataDxfId="64"/>
-    <tableColumn id="115" name="LETRAS-PORTUGUES (BACHARELADO)_ce" dataDxfId="63"/>
-    <tableColumn id="116" name="LETRAS-PORTUGUES (BACHARELADO)_ger" dataDxfId="62"/>
-    <tableColumn id="117" name="Caracteristicas30" dataDxfId="61"/>
-    <tableColumn id="118" name="LETRAS-PORTUGUES (LICENCIATURA)_fg" dataDxfId="60"/>
-    <tableColumn id="119" name="LETRAS-PORTUGUES (LICENCIATURA)_ce" dataDxfId="59"/>
-    <tableColumn id="120" name="LETRAS-PORTUGUES (LICENCIATURA)_ger" dataDxfId="58"/>
-    <tableColumn id="121" name="Caracteristicas31" dataDxfId="57"/>
-    <tableColumn id="122" name="LETRAS-PORTUGUES E ESPANHOL (LICENCIATURA)_fg" dataDxfId="56"/>
-    <tableColumn id="123" name="LETRAS-PORTUGUES E ESPANHOL (LICENCIATURA)_ce" dataDxfId="55"/>
-    <tableColumn id="124" name="LETRAS-PORTUGUES E ESPANHOL (LICENCIATURA)_ger" dataDxfId="54"/>
-    <tableColumn id="125" name="Caracteristicas32" dataDxfId="53"/>
-    <tableColumn id="126" name="LETRAS-PORTUGUES E INGLES (LICENCIATURA)_fg" dataDxfId="52"/>
-    <tableColumn id="127" name="LETRAS-PORTUGUES E INGLES (LICENCIATURA)_ce" dataDxfId="51"/>
-    <tableColumn id="128" name="LETRAS-PORTUGUES E INGLES (LICENCIATURA)_ger" dataDxfId="50"/>
-    <tableColumn id="129" name="Caracteristicas33" dataDxfId="49"/>
-    <tableColumn id="130" name="MATEMATICA (BACHARELADO)_fg" dataDxfId="48"/>
-    <tableColumn id="131" name="MATEMATICA (BACHARELADO)_ce" dataDxfId="47"/>
-    <tableColumn id="132" name="MATEMATICA (BACHARELADO)_ger" dataDxfId="46"/>
-    <tableColumn id="133" name="Caracteristicas34" dataDxfId="45"/>
-    <tableColumn id="134" name="MATEMATICA (LICENCIATURA)_fg" dataDxfId="44"/>
-    <tableColumn id="135" name="MATEMATICA (LICENCIATURA)_ce" dataDxfId="43"/>
-    <tableColumn id="136" name="MATEMATICA (LICENCIATURA)_ger" dataDxfId="42"/>
-    <tableColumn id="137" name="Caracteristicas35" dataDxfId="41"/>
-    <tableColumn id="138" name="MUSICA (LICENCIATURA)_fg" dataDxfId="40"/>
-    <tableColumn id="139" name="MUSICA (LICENCIATURA)_ce" dataDxfId="39"/>
-    <tableColumn id="140" name="MUSICA (LICENCIATURA)_ger" dataDxfId="38"/>
-    <tableColumn id="141" name="Caracteristicas36" dataDxfId="37"/>
-    <tableColumn id="142" name="PEDAGOGIA (LICENCIATURA)_fg" dataDxfId="36"/>
-    <tableColumn id="143" name="PEDAGOGIA (LICENCIATURA)_ce" dataDxfId="35"/>
-    <tableColumn id="144" name="PEDAGOGIA (LICENCIATURA)_ger" dataDxfId="34"/>
-    <tableColumn id="145" name="Caracteristicas37" dataDxfId="33"/>
-    <tableColumn id="146" name="QUIMICA (BACHARELADO)_fg" dataDxfId="32"/>
-    <tableColumn id="147" name="QUIMICA (BACHARELADO)_ce" dataDxfId="31"/>
-    <tableColumn id="148" name="QUIMICA (BACHARELADO)_ger" dataDxfId="30"/>
-    <tableColumn id="149" name="Caracteristicas38" dataDxfId="29"/>
-    <tableColumn id="150" name="QUIMICA (LICENCIATURA)_fg" dataDxfId="28"/>
-    <tableColumn id="151" name="QUIMICA (LICENCIATURA)_ce" dataDxfId="27"/>
-    <tableColumn id="152" name="QUIMICA (LICENCIATURA)_ger" dataDxfId="26"/>
-    <tableColumn id="153" name="Caracteristicas39" dataDxfId="25"/>
-    <tableColumn id="154" name="SISTEMAS DE INFORMACAO_fg" dataDxfId="24"/>
-    <tableColumn id="155" name="SISTEMAS DE INFORMACAO_ce" dataDxfId="23"/>
-    <tableColumn id="156" name="SISTEMAS DE INFORMACAO_ger" dataDxfId="22"/>
-    <tableColumn id="157" name="Caracteristicas40" dataDxfId="21"/>
-    <tableColumn id="158" name="TECNOLOGIA EM ANALISE E DESENVOLVIMENTO DE SISTEMAS_fg" dataDxfId="20"/>
-    <tableColumn id="159" name="TECNOLOGIA EM ANALISE E DESENVOLVIMENTO DE SISTEMAS_ce" dataDxfId="19"/>
-    <tableColumn id="160" name="TECNOLOGIA EM ANALISE E DESENVOLVIMENTO DE SISTEMAS_ger" dataDxfId="18"/>
-    <tableColumn id="161" name="Caracteristicas41" dataDxfId="17"/>
-    <tableColumn id="162" name="TECNOLOGIA EM AUTOMACAO INDUSTRIAL_fg" dataDxfId="16"/>
-    <tableColumn id="163" name="TECNOLOGIA EM AUTOMACAO INDUSTRIAL_ce" dataDxfId="15"/>
-    <tableColumn id="164" name="TECNOLOGIA EM AUTOMACAO INDUSTRIAL_ger" dataDxfId="14"/>
-    <tableColumn id="165" name="Caracteristicas42" dataDxfId="13"/>
-    <tableColumn id="166" name="TECNOLOGIA EM GESTAO DA PRODUCAO INDUSTRIAL_fg" dataDxfId="12"/>
-    <tableColumn id="167" name="TECNOLOGIA EM GESTAO DA PRODUCAO INDUSTRIAL_ce" dataDxfId="11"/>
-    <tableColumn id="168" name="TECNOLOGIA EM GESTAO DA PRODUCAO INDUSTRIAL_ger" dataDxfId="10"/>
-    <tableColumn id="169" name="Caracteristicas43" dataDxfId="9"/>
-    <tableColumn id="170" name="TECNOLOGIA EM REDES DE COMPUTADORES_fg" dataDxfId="8"/>
-    <tableColumn id="171" name="TECNOLOGIA EM REDES DE COMPUTADORES_ce" dataDxfId="7"/>
-    <tableColumn id="172" name="TECNOLOGIA EM REDES DE COMPUTADORES_ger" dataDxfId="6"/>
-    <tableColumn id="173" name="Caracteristicas44" dataDxfId="5"/>
-    <tableColumn id="174" name="ENADE_fg" dataDxfId="4"/>
-    <tableColumn id="175" name="ENADE_ce" dataDxfId="3"/>
-    <tableColumn id="176" name="ENADE_ger" dataDxfId="2"/>
+    <tableColumn id="1" name="Caracteristicas" dataDxfId="175"/>
+    <tableColumn id="2" name="ARQUITETURA E URBANISMO_fg" dataDxfId="174"/>
+    <tableColumn id="3" name="ARQUITETURA E URBANISMO_ce" dataDxfId="173"/>
+    <tableColumn id="4" name="ARQUITETURA E URBANISMO_ger" dataDxfId="172"/>
+    <tableColumn id="5" name="Caracteristicas2" dataDxfId="171"/>
+    <tableColumn id="6" name="ARTES VISUAIS (LICENCIATURA)_fg" dataDxfId="170"/>
+    <tableColumn id="7" name="ARTES VISUAIS (LICENCIATURA)_ce" dataDxfId="169"/>
+    <tableColumn id="8" name="ARTES VISUAIS (LICENCIATURA)_ger" dataDxfId="168"/>
+    <tableColumn id="9" name="Caracteristicas3" dataDxfId="167"/>
+    <tableColumn id="10" name="CIENCIA DA COMPUTACAO (BACHARELADO)_fg" dataDxfId="166"/>
+    <tableColumn id="11" name="CIENCIA DA COMPUTACAO (BACHARELADO)_ce" dataDxfId="165"/>
+    <tableColumn id="12" name="CIENCIA DA COMPUTACAO (BACHARELADO)_ger" dataDxfId="164"/>
+    <tableColumn id="13" name="Caracteristicas4" dataDxfId="163"/>
+    <tableColumn id="14" name="CIENCIA DA COMPUTACAO (LICENCIATURA)_fg" dataDxfId="162"/>
+    <tableColumn id="15" name="CIENCIA DA COMPUTACAO (LICENCIATURA)_ce" dataDxfId="161"/>
+    <tableColumn id="16" name="CIENCIA DA COMPUTACAO (LICENCIATURA)_ger" dataDxfId="160"/>
+    <tableColumn id="17" name="Caracteristicas5" dataDxfId="159"/>
+    <tableColumn id="18" name="CIENCIAS BIOLOGICAS (BACHARELADO)_fg" dataDxfId="158"/>
+    <tableColumn id="19" name="CIENCIAS BIOLOGICAS (BACHARELADO)_ce" dataDxfId="157"/>
+    <tableColumn id="20" name="CIENCIAS BIOLOGICAS (BACHARELADO)_ger" dataDxfId="156"/>
+    <tableColumn id="21" name="Caracteristicas6" dataDxfId="155"/>
+    <tableColumn id="22" name="CIENCIAS BIOLOGICAS (LICENCIATURA)_fg" dataDxfId="154"/>
+    <tableColumn id="23" name="CIENCIAS BIOLOGICAS (LICENCIATURA)_ce" dataDxfId="153"/>
+    <tableColumn id="24" name="CIENCIAS BIOLOGICAS (LICENCIATURA)_ger" dataDxfId="152"/>
+    <tableColumn id="25" name="Caracteristicas7" dataDxfId="151"/>
+    <tableColumn id="26" name="CIENCIAS SOCIAIS (BACHARELADO)_fg" dataDxfId="150"/>
+    <tableColumn id="27" name="CIENCIAS SOCIAIS (BACHARELADO)_ce" dataDxfId="149"/>
+    <tableColumn id="28" name="CIENCIAS SOCIAIS (BACHARELADO)_ger" dataDxfId="148"/>
+    <tableColumn id="29" name="Caracteristicas8" dataDxfId="147"/>
+    <tableColumn id="30" name="CIENCIAS SOCIAIS (LICENCIATURA)_fg" dataDxfId="146"/>
+    <tableColumn id="31" name="CIENCIAS SOCIAIS (LICENCIATURA)_ce" dataDxfId="145"/>
+    <tableColumn id="32" name="CIENCIAS SOCIAIS (LICENCIATURA)_ger" dataDxfId="144"/>
+    <tableColumn id="33" name="Caracteristicas9" dataDxfId="143"/>
+    <tableColumn id="34" name="EDUCACAO FISICA (LICENCIATURA)_fg" dataDxfId="142"/>
+    <tableColumn id="35" name="EDUCACAO FISICA (LICENCIATURA)_ce" dataDxfId="141"/>
+    <tableColumn id="36" name="EDUCACAO FISICA (LICENCIATURA)_ger" dataDxfId="140"/>
+    <tableColumn id="37" name="Caracteristicas10" dataDxfId="139"/>
+    <tableColumn id="38" name="ENGENHARIA AMBIENTAL_fg" dataDxfId="138"/>
+    <tableColumn id="39" name="ENGENHARIA AMBIENTAL_ce" dataDxfId="137"/>
+    <tableColumn id="40" name="ENGENHARIA AMBIENTAL_ger" dataDxfId="136"/>
+    <tableColumn id="41" name="Caracteristicas11" dataDxfId="135"/>
+    <tableColumn id="42" name="ENGENHARIA CIVIL_fg" dataDxfId="134"/>
+    <tableColumn id="43" name="ENGENHARIA CIVIL_ce" dataDxfId="133"/>
+    <tableColumn id="44" name="ENGENHARIA CIVIL_ger" dataDxfId="132"/>
+    <tableColumn id="45" name="Caracteristicas12" dataDxfId="131"/>
+    <tableColumn id="46" name="ENGENHARIA DE ALIMENTOS_fg" dataDxfId="130"/>
+    <tableColumn id="47" name="ENGENHARIA DE ALIMENTOS_ce" dataDxfId="129"/>
+    <tableColumn id="48" name="ENGENHARIA DE ALIMENTOS_ger" dataDxfId="128"/>
+    <tableColumn id="49" name="Caracteristicas13" dataDxfId="127"/>
+    <tableColumn id="50" name="ENGENHARIA DE COMPUTACAO_fg" dataDxfId="126"/>
+    <tableColumn id="51" name="ENGENHARIA DE COMPUTACAO_ce" dataDxfId="125"/>
+    <tableColumn id="52" name="ENGENHARIA DE COMPUTACAO_ger" dataDxfId="124"/>
+    <tableColumn id="53" name="Caracteristicas14" dataDxfId="123"/>
+    <tableColumn id="54" name="ENGENHARIA DE CONTROLE E AUTOMACAO_fg" dataDxfId="122"/>
+    <tableColumn id="55" name="ENGENHARIA DE CONTROLE E AUTOMACAO_ce" dataDxfId="121"/>
+    <tableColumn id="56" name="ENGENHARIA DE CONTROLE E AUTOMACAO_ger" dataDxfId="120"/>
+    <tableColumn id="57" name="Caracteristicas15" dataDxfId="119"/>
+    <tableColumn id="58" name="ENGENHARIA DE PRODUCAO_fg" dataDxfId="118"/>
+    <tableColumn id="59" name="ENGENHARIA DE PRODUCAO_ce" dataDxfId="117"/>
+    <tableColumn id="60" name="ENGENHARIA DE PRODUCAO_ger" dataDxfId="116"/>
+    <tableColumn id="61" name="Caracteristicas16" dataDxfId="115"/>
+    <tableColumn id="62" name="ENGENHARIA ELETRICA_fg" dataDxfId="114"/>
+    <tableColumn id="63" name="ENGENHARIA ELETRICA_ce" dataDxfId="113"/>
+    <tableColumn id="64" name="ENGENHARIA ELETRICA_ger" dataDxfId="112"/>
+    <tableColumn id="65" name="Caracteristicas17" dataDxfId="111"/>
+    <tableColumn id="66" name="ENGENHARIA FLORESTAL_fg" dataDxfId="110"/>
+    <tableColumn id="67" name="ENGENHARIA FLORESTAL_ce" dataDxfId="109"/>
+    <tableColumn id="68" name="ENGENHARIA FLORESTAL_ger" dataDxfId="108"/>
+    <tableColumn id="69" name="Caracteristicas18" dataDxfId="107"/>
+    <tableColumn id="70" name="ENGENHARIA MECANICA_fg" dataDxfId="106"/>
+    <tableColumn id="71" name="ENGENHARIA MECANICA_ce" dataDxfId="105"/>
+    <tableColumn id="72" name="ENGENHARIA MECANICA_ger" dataDxfId="104"/>
+    <tableColumn id="73" name="Caracteristicas19" dataDxfId="103"/>
+    <tableColumn id="74" name="ENGENHARIA QUIMICA_fg" dataDxfId="102"/>
+    <tableColumn id="75" name="ENGENHARIA QUIMICA_ce" dataDxfId="101"/>
+    <tableColumn id="76" name="ENGENHARIA QUIMICA_ger" dataDxfId="100"/>
+    <tableColumn id="77" name="Caracteristicas20" dataDxfId="99"/>
+    <tableColumn id="78" name="ENGENHARIA_fg" dataDxfId="98"/>
+    <tableColumn id="79" name="ENGENHARIA_ce" dataDxfId="97"/>
+    <tableColumn id="80" name="ENGENHARIA_ger" dataDxfId="96"/>
+    <tableColumn id="81" name="Caracteristicas21" dataDxfId="95"/>
+    <tableColumn id="82" name="FILOSOFIA (BACHARELADO)_fg" dataDxfId="94"/>
+    <tableColumn id="83" name="FILOSOFIA (BACHARELADO)_ce" dataDxfId="93"/>
+    <tableColumn id="84" name="FILOSOFIA (BACHARELADO)_ger" dataDxfId="92"/>
+    <tableColumn id="85" name="Caracteristicas22" dataDxfId="91"/>
+    <tableColumn id="86" name="FILOSOFIA (LICENCIATURA)_fg" dataDxfId="90"/>
+    <tableColumn id="87" name="FILOSOFIA (LICENCIATURA)_ce" dataDxfId="89"/>
+    <tableColumn id="88" name="FILOSOFIA (LICENCIATURA)_ger" dataDxfId="88"/>
+    <tableColumn id="89" name="Caracteristicas23" dataDxfId="87"/>
+    <tableColumn id="90" name="FISICA (BACHARELADO)_fg" dataDxfId="86"/>
+    <tableColumn id="91" name="FISICA (BACHARELADO)_ce" dataDxfId="85"/>
+    <tableColumn id="92" name="FISICA (BACHARELADO)_ger" dataDxfId="84"/>
+    <tableColumn id="93" name="Caracteristicas24" dataDxfId="83"/>
+    <tableColumn id="94" name="FISICA (LICENCIATURA)_fg" dataDxfId="82"/>
+    <tableColumn id="95" name="FISICA (LICENCIATURA)_ce" dataDxfId="81"/>
+    <tableColumn id="96" name="FISICA (LICENCIATURA)_ger" dataDxfId="80"/>
+    <tableColumn id="97" name="Caracteristicas25" dataDxfId="79"/>
+    <tableColumn id="98" name="GEOGRAFIA (BACHARELADO)_fg" dataDxfId="78"/>
+    <tableColumn id="99" name="GEOGRAFIA (BACHARELADO)_ce" dataDxfId="77"/>
+    <tableColumn id="100" name="GEOGRAFIA (BACHARELADO)_ger" dataDxfId="76"/>
+    <tableColumn id="101" name="Caracteristicas26" dataDxfId="75"/>
+    <tableColumn id="102" name="GEOGRAFIA (LICENCIATURA)_fg" dataDxfId="74"/>
+    <tableColumn id="103" name="GEOGRAFIA (LICENCIATURA)_ce" dataDxfId="73"/>
+    <tableColumn id="104" name="GEOGRAFIA (LICENCIATURA)_ger" dataDxfId="72"/>
+    <tableColumn id="105" name="Caracteristicas27" dataDxfId="71"/>
+    <tableColumn id="106" name="HISTORIA (BACHARELADO)_fg" dataDxfId="70"/>
+    <tableColumn id="107" name="HISTORIA (BACHARELADO)_ce" dataDxfId="69"/>
+    <tableColumn id="108" name="HISTORIA (BACHARELADO)_ger" dataDxfId="68"/>
+    <tableColumn id="109" name="Caracteristicas28" dataDxfId="67"/>
+    <tableColumn id="110" name="HISTORIA (LICENCIATURA)_fg" dataDxfId="66"/>
+    <tableColumn id="111" name="HISTORIA (LICENCIATURA)_ce" dataDxfId="65"/>
+    <tableColumn id="112" name="HISTORIA (LICENCIATURA)_ger" dataDxfId="64"/>
+    <tableColumn id="113" name="Caracteristicas29" dataDxfId="63"/>
+    <tableColumn id="114" name="LETRAS-PORTUGUES (BACHARELADO)_fg" dataDxfId="62"/>
+    <tableColumn id="115" name="LETRAS-PORTUGUES (BACHARELADO)_ce" dataDxfId="61"/>
+    <tableColumn id="116" name="LETRAS-PORTUGUES (BACHARELADO)_ger" dataDxfId="60"/>
+    <tableColumn id="117" name="Caracteristicas30" dataDxfId="59"/>
+    <tableColumn id="118" name="LETRAS-PORTUGUES (LICENCIATURA)_fg" dataDxfId="58"/>
+    <tableColumn id="119" name="LETRAS-PORTUGUES (LICENCIATURA)_ce" dataDxfId="57"/>
+    <tableColumn id="120" name="LETRAS-PORTUGUES (LICENCIATURA)_ger" dataDxfId="56"/>
+    <tableColumn id="121" name="Caracteristicas31" dataDxfId="55"/>
+    <tableColumn id="122" name="LETRAS-PORTUGUES E ESPANHOL (LICENCIATURA)_fg" dataDxfId="54"/>
+    <tableColumn id="123" name="LETRAS-PORTUGUES E ESPANHOL (LICENCIATURA)_ce" dataDxfId="53"/>
+    <tableColumn id="124" name="LETRAS-PORTUGUES E ESPANHOL (LICENCIATURA)_ger" dataDxfId="52"/>
+    <tableColumn id="125" name="Caracteristicas32" dataDxfId="51"/>
+    <tableColumn id="126" name="LETRAS-PORTUGUES E INGLES (LICENCIATURA)_fg" dataDxfId="50"/>
+    <tableColumn id="127" name="LETRAS-PORTUGUES E INGLES (LICENCIATURA)_ce" dataDxfId="49"/>
+    <tableColumn id="128" name="LETRAS-PORTUGUES E INGLES (LICENCIATURA)_ger" dataDxfId="48"/>
+    <tableColumn id="129" name="Caracteristicas33" dataDxfId="47"/>
+    <tableColumn id="130" name="MATEMATICA (BACHARELADO)_fg" dataDxfId="46"/>
+    <tableColumn id="131" name="MATEMATICA (BACHARELADO)_ce" dataDxfId="45"/>
+    <tableColumn id="132" name="MATEMATICA (BACHARELADO)_ger" dataDxfId="44"/>
+    <tableColumn id="133" name="Caracteristicas34" dataDxfId="43"/>
+    <tableColumn id="134" name="MATEMATICA (LICENCIATURA)_fg" dataDxfId="42"/>
+    <tableColumn id="135" name="MATEMATICA (LICENCIATURA)_ce" dataDxfId="41"/>
+    <tableColumn id="136" name="MATEMATICA (LICENCIATURA)_ger" dataDxfId="40"/>
+    <tableColumn id="137" name="Caracteristicas35" dataDxfId="39"/>
+    <tableColumn id="138" name="MUSICA (LICENCIATURA)_fg" dataDxfId="38"/>
+    <tableColumn id="139" name="MUSICA (LICENCIATURA)_ce" dataDxfId="37"/>
+    <tableColumn id="140" name="MUSICA (LICENCIATURA)_ger" dataDxfId="36"/>
+    <tableColumn id="141" name="Caracteristicas36" dataDxfId="35"/>
+    <tableColumn id="142" name="PEDAGOGIA (LICENCIATURA)_fg" dataDxfId="34"/>
+    <tableColumn id="143" name="PEDAGOGIA (LICENCIATURA)_ce" dataDxfId="33"/>
+    <tableColumn id="144" name="PEDAGOGIA (LICENCIATURA)_ger" dataDxfId="32"/>
+    <tableColumn id="145" name="Caracteristicas37" dataDxfId="31"/>
+    <tableColumn id="146" name="QUIMICA (BACHARELADO)_fg" dataDxfId="30"/>
+    <tableColumn id="147" name="QUIMICA (BACHARELADO)_ce" dataDxfId="29"/>
+    <tableColumn id="148" name="QUIMICA (BACHARELADO)_ger" dataDxfId="28"/>
+    <tableColumn id="149" name="Caracteristicas38" dataDxfId="27"/>
+    <tableColumn id="150" name="QUIMICA (LICENCIATURA)_fg" dataDxfId="26"/>
+    <tableColumn id="151" name="QUIMICA (LICENCIATURA)_ce" dataDxfId="25"/>
+    <tableColumn id="152" name="QUIMICA (LICENCIATURA)_ger" dataDxfId="24"/>
+    <tableColumn id="153" name="Caracteristicas39" dataDxfId="23"/>
+    <tableColumn id="154" name="SISTEMAS DE INFORMACAO_fg" dataDxfId="22"/>
+    <tableColumn id="155" name="SISTEMAS DE INFORMACAO_ce" dataDxfId="21"/>
+    <tableColumn id="156" name="SISTEMAS DE INFORMACAO_ger" dataDxfId="20"/>
+    <tableColumn id="157" name="Caracteristicas40" dataDxfId="19"/>
+    <tableColumn id="158" name="TECNOLOGIA EM ANALISE E DESENVOLVIMENTO DE SISTEMAS_fg" dataDxfId="18"/>
+    <tableColumn id="159" name="TECNOLOGIA EM ANALISE E DESENVOLVIMENTO DE SISTEMAS_ce" dataDxfId="17"/>
+    <tableColumn id="160" name="TECNOLOGIA EM ANALISE E DESENVOLVIMENTO DE SISTEMAS_ger" dataDxfId="16"/>
+    <tableColumn id="161" name="Caracteristicas41" dataDxfId="15"/>
+    <tableColumn id="162" name="TECNOLOGIA EM AUTOMACAO INDUSTRIAL_fg" dataDxfId="14"/>
+    <tableColumn id="163" name="TECNOLOGIA EM AUTOMACAO INDUSTRIAL_ce" dataDxfId="13"/>
+    <tableColumn id="164" name="TECNOLOGIA EM AUTOMACAO INDUSTRIAL_ger" dataDxfId="12"/>
+    <tableColumn id="165" name="Caracteristicas42" dataDxfId="11"/>
+    <tableColumn id="166" name="TECNOLOGIA EM GESTAO DA PRODUCAO INDUSTRIAL_fg" dataDxfId="10"/>
+    <tableColumn id="167" name="TECNOLOGIA EM GESTAO DA PRODUCAO INDUSTRIAL_ce" dataDxfId="9"/>
+    <tableColumn id="168" name="TECNOLOGIA EM GESTAO DA PRODUCAO INDUSTRIAL_ger" dataDxfId="8"/>
+    <tableColumn id="169" name="Caracteristicas43" dataDxfId="7"/>
+    <tableColumn id="170" name="TECNOLOGIA EM REDES DE COMPUTADORES_fg" dataDxfId="6"/>
+    <tableColumn id="171" name="TECNOLOGIA EM REDES DE COMPUTADORES_ce" dataDxfId="5"/>
+    <tableColumn id="172" name="TECNOLOGIA EM REDES DE COMPUTADORES_ger" dataDxfId="4"/>
+    <tableColumn id="173" name="Caracteristicas44" dataDxfId="3"/>
+    <tableColumn id="174" name="ENADE_fg" dataDxfId="2"/>
+    <tableColumn id="175" name="ENADE_ce" dataDxfId="1"/>
+    <tableColumn id="176" name="ENADE_ger" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5974,15 +6019,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FT45"/>
+  <dimension ref="A1:FT57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="FQ46" sqref="FQ46:FQ57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="54.20703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="43.47265625" customWidth="1"/>
     <col min="4" max="4" width="44.3671875" customWidth="1"/>
@@ -5994,166 +6039,166 @@
     <col min="10" max="10" width="44.3125" customWidth="1"/>
     <col min="11" max="11" width="41.26171875" customWidth="1"/>
     <col min="12" max="12" width="45.20703125" customWidth="1"/>
-    <col min="13" max="13" width="45.62890625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="61.578125" customWidth="1"/>
     <col min="15" max="15" width="62" customWidth="1"/>
     <col min="16" max="16" width="62.9453125" customWidth="1"/>
-    <col min="17" max="17" width="43.578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="56.734375" customWidth="1"/>
     <col min="19" max="19" width="57.20703125" customWidth="1"/>
     <col min="20" max="20" width="58.1015625" customWidth="1"/>
-    <col min="21" max="21" width="34.89453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="55.83984375" customWidth="1"/>
     <col min="23" max="23" width="56.3125" customWidth="1"/>
     <col min="24" max="24" width="57.20703125" customWidth="1"/>
-    <col min="25" max="25" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="51.47265625" customWidth="1"/>
     <col min="27" max="27" width="51.9453125" customWidth="1"/>
     <col min="28" max="28" width="52.83984375" customWidth="1"/>
-    <col min="29" max="29" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="50.578125" customWidth="1"/>
     <col min="31" max="31" width="51.05078125" customWidth="1"/>
     <col min="32" max="32" width="51.9453125" customWidth="1"/>
-    <col min="33" max="33" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="51.05078125" customWidth="1"/>
     <col min="35" max="35" width="51.47265625" customWidth="1"/>
     <col min="36" max="36" width="52.41796875" customWidth="1"/>
-    <col min="37" max="37" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="39.1015625" customWidth="1"/>
     <col min="39" max="39" width="39.578125" customWidth="1"/>
     <col min="40" max="40" width="40.5234375" customWidth="1"/>
-    <col min="41" max="41" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="30.41796875" customWidth="1"/>
     <col min="43" max="43" width="30.89453125" customWidth="1"/>
     <col min="44" max="44" width="31.7890625" customWidth="1"/>
-    <col min="45" max="45" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="43" customWidth="1"/>
     <col min="47" max="47" width="43.47265625" customWidth="1"/>
     <col min="48" max="48" width="44.3671875" customWidth="1"/>
-    <col min="49" max="49" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="54.05078125" customWidth="1"/>
     <col min="50" max="50" width="46.68359375" customWidth="1"/>
     <col min="51" max="51" width="47.15625" customWidth="1"/>
     <col min="52" max="52" width="48.05078125" customWidth="1"/>
-    <col min="53" max="53" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="61.578125" customWidth="1"/>
     <col min="55" max="55" width="62" customWidth="1"/>
     <col min="56" max="56" width="62.9453125" customWidth="1"/>
-    <col min="57" max="57" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="42.7890625" customWidth="1"/>
     <col min="59" max="59" width="43.26171875" customWidth="1"/>
     <col min="60" max="60" width="44.15625" customWidth="1"/>
-    <col min="61" max="61" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="36.62890625" customWidth="1"/>
     <col min="63" max="63" width="37.05078125" customWidth="1"/>
     <col min="64" max="64" width="38" customWidth="1"/>
-    <col min="65" max="65" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="38.89453125" customWidth="1"/>
     <col min="67" max="67" width="39.3671875" customWidth="1"/>
     <col min="68" max="68" width="40.26171875" customWidth="1"/>
-    <col min="69" max="69" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="38" customWidth="1"/>
     <col min="71" max="71" width="38.41796875" customWidth="1"/>
     <col min="72" max="72" width="39.3671875" customWidth="1"/>
-    <col min="73" max="73" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="35" customWidth="1"/>
     <col min="75" max="75" width="35.47265625" customWidth="1"/>
     <col min="76" max="76" width="36.3671875" customWidth="1"/>
-    <col min="77" max="77" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="78" max="79" width="27.05078125" customWidth="1"/>
     <col min="80" max="80" width="26.68359375" customWidth="1"/>
-    <col min="81" max="81" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="41.89453125" customWidth="1"/>
     <col min="83" max="83" width="42.3125" customWidth="1"/>
     <col min="84" max="84" width="43.26171875" customWidth="1"/>
-    <col min="85" max="85" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="40.9453125" customWidth="1"/>
     <col min="87" max="87" width="41.41796875" customWidth="1"/>
     <col min="88" max="88" width="42.3125" customWidth="1"/>
-    <col min="89" max="89" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="37.05078125" customWidth="1"/>
     <col min="91" max="91" width="37.5234375" customWidth="1"/>
     <col min="92" max="92" width="38.41796875" customWidth="1"/>
-    <col min="93" max="93" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="36.15625" customWidth="1"/>
     <col min="95" max="95" width="36.62890625" customWidth="1"/>
     <col min="96" max="96" width="37.5234375" customWidth="1"/>
-    <col min="97" max="97" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="43.68359375" customWidth="1"/>
     <col min="99" max="99" width="44.15625" customWidth="1"/>
     <col min="100" max="100" width="45.1015625" customWidth="1"/>
-    <col min="101" max="101" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="42.7890625" customWidth="1"/>
     <col min="103" max="103" width="43.26171875" customWidth="1"/>
     <col min="104" max="104" width="44.15625" customWidth="1"/>
-    <col min="105" max="105" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="106" max="106" width="40.734375" customWidth="1"/>
     <col min="107" max="107" width="41.20703125" customWidth="1"/>
     <col min="108" max="108" width="42.1015625" customWidth="1"/>
-    <col min="109" max="109" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="39.83984375" customWidth="1"/>
     <col min="111" max="111" width="40.26171875" customWidth="1"/>
     <col min="112" max="112" width="41.20703125" customWidth="1"/>
-    <col min="113" max="113" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="54.89453125" customWidth="1"/>
     <col min="115" max="115" width="55.3671875" customWidth="1"/>
     <col min="116" max="116" width="56.3125" customWidth="1"/>
-    <col min="117" max="117" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="54" customWidth="1"/>
     <col min="119" max="119" width="54.47265625" customWidth="1"/>
     <col min="120" max="120" width="55.3671875" customWidth="1"/>
-    <col min="121" max="121" width="44.15625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="70.68359375" customWidth="1"/>
     <col min="123" max="123" width="71.15625" customWidth="1"/>
     <col min="124" max="124" width="72.1015625" customWidth="1"/>
-    <col min="125" max="125" width="41.20703125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="65.89453125" customWidth="1"/>
     <col min="127" max="127" width="66.3671875" customWidth="1"/>
     <col min="128" max="128" width="67.26171875" customWidth="1"/>
-    <col min="129" max="129" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="46.20703125" customWidth="1"/>
     <col min="131" max="131" width="46.68359375" customWidth="1"/>
     <col min="132" max="132" width="47.578125" customWidth="1"/>
-    <col min="133" max="133" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="45.3125" customWidth="1"/>
     <col min="135" max="135" width="45.7890625" customWidth="1"/>
     <col min="136" max="136" width="46.68359375" customWidth="1"/>
-    <col min="137" max="137" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="138" max="138" width="37.734375" customWidth="1"/>
     <col min="139" max="139" width="38.20703125" customWidth="1"/>
     <col min="140" max="140" width="39.1015625" customWidth="1"/>
-    <col min="141" max="141" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="142" max="142" width="43" customWidth="1"/>
     <col min="143" max="143" width="43.47265625" customWidth="1"/>
     <col min="144" max="144" width="44.3671875" customWidth="1"/>
-    <col min="145" max="145" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="146" max="146" width="39.578125" customWidth="1"/>
     <col min="147" max="147" width="40.05078125" customWidth="1"/>
     <col min="148" max="148" width="40.9453125" customWidth="1"/>
-    <col min="149" max="149" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="150" max="150" width="38.68359375" customWidth="1"/>
     <col min="151" max="151" width="39.1015625" customWidth="1"/>
     <col min="152" max="152" width="40.05078125" customWidth="1"/>
-    <col min="153" max="153" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="154" max="154" width="41.89453125" customWidth="1"/>
     <col min="155" max="155" width="42.3125" customWidth="1"/>
     <col min="156" max="156" width="43.26171875" customWidth="1"/>
-    <col min="157" max="157" width="53.83984375" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="158" max="158" width="84.41796875" customWidth="1"/>
     <col min="159" max="159" width="84.89453125" customWidth="1"/>
     <col min="160" max="160" width="85.7890625" customWidth="1"/>
-    <col min="161" max="161" width="38.89453125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="162" max="162" width="60.41796875" customWidth="1"/>
     <col min="163" max="163" width="60.89453125" customWidth="1"/>
     <col min="164" max="164" width="61.7890625" customWidth="1"/>
-    <col min="165" max="165" width="47.15625" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="166" max="166" width="73.68359375" customWidth="1"/>
     <col min="167" max="167" width="74.15625" customWidth="1"/>
     <col min="168" max="168" width="75.05078125" customWidth="1"/>
-    <col min="169" max="169" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="170" max="170" width="63.15625" customWidth="1"/>
     <col min="171" max="171" width="63.62890625" customWidth="1"/>
     <col min="172" max="172" width="64.5234375" customWidth="1"/>
-    <col min="173" max="173" width="53.578125" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="63.3671875" bestFit="1" customWidth="1"/>
     <col min="174" max="174" width="15.578125" customWidth="1"/>
     <col min="175" max="175" width="16" customWidth="1"/>
     <col min="176" max="176" width="16.9453125" customWidth="1"/>
@@ -30007,6 +30052,6366 @@
       </c>
       <c r="FT45" s="5">
         <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:176" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="7">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="C46" s="7">
+        <v>52.6</v>
+      </c>
+      <c r="D46" s="7">
+        <v>55.3</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F46" s="7">
+        <v>61.1</v>
+      </c>
+      <c r="G46" s="7">
+        <v>54.9</v>
+      </c>
+      <c r="H46" s="7">
+        <v>55.7</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="J46" s="7">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="K46" s="7">
+        <v>51.5</v>
+      </c>
+      <c r="L46" s="7">
+        <v>55.25</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="N46" s="7">
+        <v>61.3</v>
+      </c>
+      <c r="O46" s="7">
+        <v>57.7</v>
+      </c>
+      <c r="P46" s="7">
+        <v>58.3</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="R46" s="7">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="S46" s="7">
+        <v>53.8</v>
+      </c>
+      <c r="T46" s="7">
+        <v>57.2</v>
+      </c>
+      <c r="U46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="V46" s="7">
+        <v>64.45</v>
+      </c>
+      <c r="W46" s="7">
+        <v>52.8</v>
+      </c>
+      <c r="X46" s="7">
+        <v>55.3</v>
+      </c>
+      <c r="Y46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z46" s="7">
+        <v>64.3</v>
+      </c>
+      <c r="AA46" s="7">
+        <v>50.6</v>
+      </c>
+      <c r="AB46" s="7">
+        <v>53.95</v>
+      </c>
+      <c r="AC46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD46" s="7">
+        <v>60</v>
+      </c>
+      <c r="AE46" s="7">
+        <v>46.1</v>
+      </c>
+      <c r="AF46" s="7">
+        <v>50.3</v>
+      </c>
+      <c r="AG46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH46" s="7">
+        <v>57.3</v>
+      </c>
+      <c r="AI46" s="7">
+        <v>52.1</v>
+      </c>
+      <c r="AJ46" s="7">
+        <v>53.6</v>
+      </c>
+      <c r="AK46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL46" s="7">
+        <v>71.3</v>
+      </c>
+      <c r="AM46" s="7">
+        <v>56.7</v>
+      </c>
+      <c r="AN46" s="7">
+        <v>60.2</v>
+      </c>
+      <c r="AO46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP46" s="7">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="AQ46" s="7">
+        <v>51.7</v>
+      </c>
+      <c r="AR46" s="7">
+        <v>55.9</v>
+      </c>
+      <c r="AS46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="AT46" s="7">
+        <v>66.3</v>
+      </c>
+      <c r="AU46" s="7">
+        <v>51.45</v>
+      </c>
+      <c r="AV46" s="7">
+        <v>55.1</v>
+      </c>
+      <c r="AW46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX46" s="7">
+        <v>72</v>
+      </c>
+      <c r="AY46" s="7">
+        <v>52.35</v>
+      </c>
+      <c r="AZ46" s="7">
+        <v>57.55</v>
+      </c>
+      <c r="BA46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="BB46" s="7">
+        <v>72.5</v>
+      </c>
+      <c r="BC46" s="7">
+        <v>50.9</v>
+      </c>
+      <c r="BD46" s="7">
+        <v>56.9</v>
+      </c>
+      <c r="BE46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="BF46" s="7">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="BG46" s="7">
+        <v>55</v>
+      </c>
+      <c r="BH46" s="7">
+        <v>59</v>
+      </c>
+      <c r="BI46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="BJ46" s="7">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="BK46" s="7">
+        <v>46.2</v>
+      </c>
+      <c r="BL46" s="7">
+        <v>51.1</v>
+      </c>
+      <c r="BM46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="BN46" s="7">
+        <v>68.5</v>
+      </c>
+      <c r="BO46" s="7">
+        <v>51.5</v>
+      </c>
+      <c r="BP46" s="7">
+        <v>55.2</v>
+      </c>
+      <c r="BQ46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="BR46" s="7">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="BS46" s="7">
+        <v>53</v>
+      </c>
+      <c r="BT46" s="7">
+        <v>57.5</v>
+      </c>
+      <c r="BU46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="BV46" s="7">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="BW46" s="7">
+        <v>47</v>
+      </c>
+      <c r="BX46" s="7">
+        <v>52.3</v>
+      </c>
+      <c r="BY46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="BZ46" s="7">
+        <v>69.5</v>
+      </c>
+      <c r="CA46" s="7">
+        <v>52.3</v>
+      </c>
+      <c r="CB46" s="7">
+        <v>56.3</v>
+      </c>
+      <c r="CC46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="CD46" s="7">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="CE46" s="7">
+        <v>57</v>
+      </c>
+      <c r="CF46" s="7">
+        <v>57.4</v>
+      </c>
+      <c r="CG46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="CH46" s="7">
+        <v>64</v>
+      </c>
+      <c r="CI46" s="7">
+        <v>49.1</v>
+      </c>
+      <c r="CJ46" s="7">
+        <v>53.8</v>
+      </c>
+      <c r="CK46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="CL46" s="7">
+        <v>67.75</v>
+      </c>
+      <c r="CM46" s="7">
+        <v>37.15</v>
+      </c>
+      <c r="CN46" s="7">
+        <v>45.25</v>
+      </c>
+      <c r="CO46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="CP46" s="7">
+        <v>63.7</v>
+      </c>
+      <c r="CQ46" s="7">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="CR46" s="7">
+        <v>46.7</v>
+      </c>
+      <c r="CS46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="CT46" s="7">
+        <v>62.25</v>
+      </c>
+      <c r="CU46" s="7">
+        <v>44.1</v>
+      </c>
+      <c r="CV46" s="7">
+        <v>49.35</v>
+      </c>
+      <c r="CW46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="CX46" s="7">
+        <v>63.65</v>
+      </c>
+      <c r="CY46" s="7">
+        <v>45.9</v>
+      </c>
+      <c r="CZ46" s="7">
+        <v>49.8</v>
+      </c>
+      <c r="DA46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="DB46" s="7">
+        <v>62.4</v>
+      </c>
+      <c r="DC46" s="7">
+        <v>49.6</v>
+      </c>
+      <c r="DD46" s="7">
+        <v>52.6</v>
+      </c>
+      <c r="DE46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="DF46" s="7">
+        <v>63.7</v>
+      </c>
+      <c r="DG46" s="7">
+        <v>52.6</v>
+      </c>
+      <c r="DH46" s="7">
+        <v>54.8</v>
+      </c>
+      <c r="DI46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="DJ46" s="7">
+        <v>63.4</v>
+      </c>
+      <c r="DK46" s="7">
+        <v>49.2</v>
+      </c>
+      <c r="DL46" s="7">
+        <v>53.2</v>
+      </c>
+      <c r="DM46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="DN46" s="7">
+        <v>59.7</v>
+      </c>
+      <c r="DO46" s="7">
+        <v>49.3</v>
+      </c>
+      <c r="DP46" s="7">
+        <v>51.4</v>
+      </c>
+      <c r="DQ46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="DR46" s="7">
+        <v>63.85</v>
+      </c>
+      <c r="DS46" s="7">
+        <v>49.2</v>
+      </c>
+      <c r="DT46" s="7">
+        <v>53.15</v>
+      </c>
+      <c r="DU46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="DV46" s="7">
+        <v>67.3</v>
+      </c>
+      <c r="DW46" s="7">
+        <v>60.9</v>
+      </c>
+      <c r="DX46" s="7">
+        <v>61.6</v>
+      </c>
+      <c r="DY46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="DZ46" s="7">
+        <v>64.5</v>
+      </c>
+      <c r="EA46" s="7">
+        <v>45.25</v>
+      </c>
+      <c r="EB46" s="7">
+        <v>49.8</v>
+      </c>
+      <c r="EC46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="ED46" s="7">
+        <v>58</v>
+      </c>
+      <c r="EE46" s="7">
+        <v>31.3</v>
+      </c>
+      <c r="EF46" s="7">
+        <v>38</v>
+      </c>
+      <c r="EG46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="EH46" s="7">
+        <v>65.3</v>
+      </c>
+      <c r="EI46" s="7">
+        <v>52.25</v>
+      </c>
+      <c r="EJ46" s="7">
+        <v>55.15</v>
+      </c>
+      <c r="EK46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="EL46" s="7">
+        <v>59.1</v>
+      </c>
+      <c r="EM46" s="7">
+        <v>59.6</v>
+      </c>
+      <c r="EN46" s="7">
+        <v>59.4</v>
+      </c>
+      <c r="EO46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="EP46" s="7">
+        <v>63.9</v>
+      </c>
+      <c r="EQ46" s="7">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="ER46" s="7">
+        <v>45.9</v>
+      </c>
+      <c r="ES46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="ET46" s="7">
+        <v>64.2</v>
+      </c>
+      <c r="EU46" s="7">
+        <v>43.65</v>
+      </c>
+      <c r="EV46" s="7">
+        <v>47.65</v>
+      </c>
+      <c r="EW46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="EX46" s="7">
+        <v>66.2</v>
+      </c>
+      <c r="EY46" s="7">
+        <v>49.2</v>
+      </c>
+      <c r="EZ46" s="7">
+        <v>52.3</v>
+      </c>
+      <c r="FA46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="FB46" s="7">
+        <v>63.1</v>
+      </c>
+      <c r="FC46" s="7">
+        <v>43</v>
+      </c>
+      <c r="FD46" s="7">
+        <v>47.6</v>
+      </c>
+      <c r="FE46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="FF46" s="7">
+        <v>59.95</v>
+      </c>
+      <c r="FG46" s="7">
+        <v>57.95</v>
+      </c>
+      <c r="FH46" s="7">
+        <v>57.3</v>
+      </c>
+      <c r="FI46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="FJ46" s="7">
+        <v>63.4</v>
+      </c>
+      <c r="FK46" s="7">
+        <v>62.3</v>
+      </c>
+      <c r="FL46" s="7">
+        <v>62.15</v>
+      </c>
+      <c r="FM46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="FN46" s="7">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="FO46" s="7">
+        <v>47.4</v>
+      </c>
+      <c r="FP46" s="7">
+        <v>49.3</v>
+      </c>
+      <c r="FQ46" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="FR46" s="7">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="FS46" s="7">
+        <v>51</v>
+      </c>
+      <c r="FT46" s="7">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:176" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="7">
+        <v>62.1</v>
+      </c>
+      <c r="C47" s="7">
+        <v>48.5</v>
+      </c>
+      <c r="D47" s="7">
+        <v>55</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F47" s="7">
+        <v>50.7</v>
+      </c>
+      <c r="G47" s="7">
+        <v>43.5</v>
+      </c>
+      <c r="H47" s="7">
+        <v>43.6</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="J47" s="7">
+        <v>61.4</v>
+      </c>
+      <c r="K47" s="7">
+        <v>44.5</v>
+      </c>
+      <c r="L47" s="7">
+        <v>48</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="N47" s="7">
+        <v>56.3</v>
+      </c>
+      <c r="O47" s="7">
+        <v>53.7</v>
+      </c>
+      <c r="P47" s="7">
+        <v>51.8</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="R47" s="7">
+        <v>67.5</v>
+      </c>
+      <c r="S47" s="7">
+        <v>48.65</v>
+      </c>
+      <c r="T47" s="7">
+        <v>53.25</v>
+      </c>
+      <c r="U47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="V47" s="7">
+        <v>58.8</v>
+      </c>
+      <c r="W47" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="X47" s="7">
+        <v>47.6</v>
+      </c>
+      <c r="Y47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z47" s="7">
+        <v>62.8</v>
+      </c>
+      <c r="AA47" s="7">
+        <v>45.8</v>
+      </c>
+      <c r="AB47" s="7">
+        <v>51.7</v>
+      </c>
+      <c r="AC47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD47" s="7">
+        <v>53.3</v>
+      </c>
+      <c r="AE47" s="7">
+        <v>41.9</v>
+      </c>
+      <c r="AF47" s="7">
+        <v>47.5</v>
+      </c>
+      <c r="AG47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH47" s="7">
+        <v>51.2</v>
+      </c>
+      <c r="AI47" s="7">
+        <v>46.8</v>
+      </c>
+      <c r="AJ47" s="7">
+        <v>47.25</v>
+      </c>
+      <c r="AK47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL47" s="7">
+        <v>66.8</v>
+      </c>
+      <c r="AM47" s="7">
+        <v>48.5</v>
+      </c>
+      <c r="AN47" s="7">
+        <v>54</v>
+      </c>
+      <c r="AO47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP47" s="7">
+        <v>66</v>
+      </c>
+      <c r="AQ47" s="7">
+        <v>48</v>
+      </c>
+      <c r="AR47" s="7">
+        <v>50.7</v>
+      </c>
+      <c r="AS47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT47" s="7">
+        <v>68.55</v>
+      </c>
+      <c r="AU47" s="7">
+        <v>47.15</v>
+      </c>
+      <c r="AV47" s="7">
+        <v>52.65</v>
+      </c>
+      <c r="AW47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AX47" s="7">
+        <v>72.25</v>
+      </c>
+      <c r="AY47" s="7">
+        <v>43.85</v>
+      </c>
+      <c r="AZ47" s="7">
+        <v>50.75</v>
+      </c>
+      <c r="BA47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="BB47" s="7">
+        <v>63.1</v>
+      </c>
+      <c r="BC47" s="7">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="BD47" s="7">
+        <v>45.5</v>
+      </c>
+      <c r="BE47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="BF47" s="7">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="BG47" s="7">
+        <v>44.5</v>
+      </c>
+      <c r="BH47" s="7">
+        <v>50.3</v>
+      </c>
+      <c r="BI47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="BJ47" s="7">
+        <v>61.6</v>
+      </c>
+      <c r="BK47" s="7">
+        <v>39.4</v>
+      </c>
+      <c r="BL47" s="7">
+        <v>46.9</v>
+      </c>
+      <c r="BM47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="BN47" s="7">
+        <v>67.7</v>
+      </c>
+      <c r="BO47" s="7">
+        <v>48.8</v>
+      </c>
+      <c r="BP47" s="7">
+        <v>53</v>
+      </c>
+      <c r="BQ47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="BR47" s="7">
+        <v>64.8</v>
+      </c>
+      <c r="BS47" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="BT47" s="7">
+        <v>48.2</v>
+      </c>
+      <c r="BU47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="BV47" s="7">
+        <v>60.7</v>
+      </c>
+      <c r="BW47" s="7">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="BX47" s="7">
+        <v>44.7</v>
+      </c>
+      <c r="BY47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="BZ47" s="7">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="CA47" s="7">
+        <v>44.8</v>
+      </c>
+      <c r="CB47" s="7">
+        <v>51.1</v>
+      </c>
+      <c r="CC47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="CD47" s="7">
+        <v>68.95</v>
+      </c>
+      <c r="CE47" s="7">
+        <v>27.4</v>
+      </c>
+      <c r="CF47" s="7">
+        <v>39.15</v>
+      </c>
+      <c r="CG47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="CH47" s="7">
+        <v>62.5</v>
+      </c>
+      <c r="CI47" s="7">
+        <v>37.85</v>
+      </c>
+      <c r="CJ47" s="7">
+        <v>43.85</v>
+      </c>
+      <c r="CK47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="CL47" s="7">
+        <v>67.95</v>
+      </c>
+      <c r="CM47" s="7">
+        <v>43.6</v>
+      </c>
+      <c r="CN47" s="7">
+        <v>48.15</v>
+      </c>
+      <c r="CO47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="CP47" s="7">
+        <v>52.6</v>
+      </c>
+      <c r="CQ47" s="7">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="CR47" s="7">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="CS47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="CT47" s="7">
+        <v>57.5</v>
+      </c>
+      <c r="CU47" s="7">
+        <v>41.5</v>
+      </c>
+      <c r="CV47" s="7">
+        <v>44.3</v>
+      </c>
+      <c r="CW47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="CX47" s="7">
+        <v>63.2</v>
+      </c>
+      <c r="CY47" s="7">
+        <v>43.2</v>
+      </c>
+      <c r="CZ47" s="7">
+        <v>47.3</v>
+      </c>
+      <c r="DA47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="DB47" s="7">
+        <v>52.5</v>
+      </c>
+      <c r="DC47" s="7">
+        <v>41.4</v>
+      </c>
+      <c r="DD47" s="7">
+        <v>42.1</v>
+      </c>
+      <c r="DE47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="DF47" s="7">
+        <v>60.55</v>
+      </c>
+      <c r="DG47" s="7">
+        <v>48.4</v>
+      </c>
+      <c r="DH47" s="7">
+        <v>51.9</v>
+      </c>
+      <c r="DI47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="DJ47" s="7">
+        <v>59.3</v>
+      </c>
+      <c r="DK47" s="7">
+        <v>55</v>
+      </c>
+      <c r="DL47" s="7">
+        <v>56.7</v>
+      </c>
+      <c r="DM47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="DN47" s="7">
+        <v>52.9</v>
+      </c>
+      <c r="DO47" s="7">
+        <v>45.5</v>
+      </c>
+      <c r="DP47" s="7">
+        <v>46.7</v>
+      </c>
+      <c r="DQ47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="DR47" s="7">
+        <v>60.9</v>
+      </c>
+      <c r="DS47" s="7">
+        <v>49.8</v>
+      </c>
+      <c r="DT47" s="7">
+        <v>51.4</v>
+      </c>
+      <c r="DU47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="DV47" s="7">
+        <v>60.55</v>
+      </c>
+      <c r="DW47" s="7">
+        <v>51.6</v>
+      </c>
+      <c r="DX47" s="7">
+        <v>52.4</v>
+      </c>
+      <c r="DY47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="DZ47" s="7">
+        <v>58.35</v>
+      </c>
+      <c r="EA47" s="7">
+        <v>37.4</v>
+      </c>
+      <c r="EB47" s="7">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="EC47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="ED47" s="7">
+        <v>52.4</v>
+      </c>
+      <c r="EE47" s="7">
+        <v>28.4</v>
+      </c>
+      <c r="EF47" s="7">
+        <v>33.6</v>
+      </c>
+      <c r="EG47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="EH47" s="7">
+        <v>63.65</v>
+      </c>
+      <c r="EI47" s="7">
+        <v>49.05</v>
+      </c>
+      <c r="EJ47" s="7">
+        <v>51.9</v>
+      </c>
+      <c r="EK47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="EL47" s="7">
+        <v>55.2</v>
+      </c>
+      <c r="EM47" s="7">
+        <v>57</v>
+      </c>
+      <c r="EN47" s="7">
+        <v>55.1</v>
+      </c>
+      <c r="EO47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="EP47" s="7">
+        <v>59.8</v>
+      </c>
+      <c r="EQ47" s="7">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="ER47" s="7">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="ES47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="ET47" s="7">
+        <v>58.2</v>
+      </c>
+      <c r="EU47" s="7">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="EV47" s="7">
+        <v>45.9</v>
+      </c>
+      <c r="EW47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="EX47" s="7">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="EY47" s="7">
+        <v>47.7</v>
+      </c>
+      <c r="EZ47" s="7">
+        <v>49.7</v>
+      </c>
+      <c r="FA47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="FB47" s="7">
+        <v>61.1</v>
+      </c>
+      <c r="FC47" s="7">
+        <v>37</v>
+      </c>
+      <c r="FD47" s="7">
+        <v>43.45</v>
+      </c>
+      <c r="FE47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="FF47" s="7">
+        <v>59.2</v>
+      </c>
+      <c r="FG47" s="7">
+        <v>52.5</v>
+      </c>
+      <c r="FH47" s="7">
+        <v>56.2</v>
+      </c>
+      <c r="FI47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="FJ47" s="7">
+        <v>61</v>
+      </c>
+      <c r="FK47" s="7">
+        <v>51</v>
+      </c>
+      <c r="FL47" s="7">
+        <v>55.4</v>
+      </c>
+      <c r="FM47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="FN47" s="7">
+        <v>54.55</v>
+      </c>
+      <c r="FO47" s="7">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="FP47" s="7">
+        <v>43.95</v>
+      </c>
+      <c r="FQ47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="FR47" s="7">
+        <v>60.5</v>
+      </c>
+      <c r="FS47" s="7">
+        <v>44.6</v>
+      </c>
+      <c r="FT47" s="7">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:176" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" s="7">
+        <v>63.3</v>
+      </c>
+      <c r="C48" s="7">
+        <v>49.5</v>
+      </c>
+      <c r="D48" s="7">
+        <v>52.1</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F48" s="7">
+        <v>58.35</v>
+      </c>
+      <c r="G48" s="7">
+        <v>51.35</v>
+      </c>
+      <c r="H48" s="7">
+        <v>51.4</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J48" s="7">
+        <v>67.650000000000006</v>
+      </c>
+      <c r="K48" s="7">
+        <v>49.5</v>
+      </c>
+      <c r="L48" s="7">
+        <v>54</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="N48" s="7">
+        <v>55.55</v>
+      </c>
+      <c r="O48" s="7">
+        <v>54.7</v>
+      </c>
+      <c r="P48" s="7">
+        <v>55.6</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="R48" s="7">
+        <v>65.75</v>
+      </c>
+      <c r="S48" s="7">
+        <v>50.15</v>
+      </c>
+      <c r="T48" s="7">
+        <v>54.15</v>
+      </c>
+      <c r="U48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="V48" s="7">
+        <v>62.9</v>
+      </c>
+      <c r="W48" s="7">
+        <v>48.8</v>
+      </c>
+      <c r="X48" s="7">
+        <v>51.9</v>
+      </c>
+      <c r="Y48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z48" s="7">
+        <v>62</v>
+      </c>
+      <c r="AA48" s="7">
+        <v>51.6</v>
+      </c>
+      <c r="AB48" s="7">
+        <v>51.8</v>
+      </c>
+      <c r="AC48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD48" s="7">
+        <v>56.6</v>
+      </c>
+      <c r="AE48" s="7">
+        <v>40.4</v>
+      </c>
+      <c r="AF48" s="7">
+        <v>43.4</v>
+      </c>
+      <c r="AG48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH48" s="7">
+        <v>56.6</v>
+      </c>
+      <c r="AI48" s="7">
+        <v>51</v>
+      </c>
+      <c r="AJ48" s="7">
+        <v>52.9</v>
+      </c>
+      <c r="AK48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL48" s="7">
+        <v>71.7</v>
+      </c>
+      <c r="AM48" s="7">
+        <v>49.7</v>
+      </c>
+      <c r="AN48" s="7">
+        <v>54.1</v>
+      </c>
+      <c r="AO48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP48" s="7">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="AQ48" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="AR48" s="7">
+        <v>56.3</v>
+      </c>
+      <c r="AS48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AT48" s="7">
+        <v>65.25</v>
+      </c>
+      <c r="AU48" s="7">
+        <v>45.6</v>
+      </c>
+      <c r="AV48" s="7">
+        <v>50.75</v>
+      </c>
+      <c r="AW48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AX48" s="7">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="AY48" s="7">
+        <v>47.3</v>
+      </c>
+      <c r="AZ48" s="7">
+        <v>54.3</v>
+      </c>
+      <c r="BA48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB48" s="7">
+        <v>69.650000000000006</v>
+      </c>
+      <c r="BC48" s="7">
+        <v>44.05</v>
+      </c>
+      <c r="BD48" s="7">
+        <v>50.7</v>
+      </c>
+      <c r="BE48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="BF48" s="7">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="BG48" s="7">
+        <v>51.25</v>
+      </c>
+      <c r="BH48" s="7">
+        <v>55.2</v>
+      </c>
+      <c r="BI48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ48" s="7">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="BK48" s="7">
+        <v>45.2</v>
+      </c>
+      <c r="BL48" s="7">
+        <v>49.4</v>
+      </c>
+      <c r="BM48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="BN48" s="7">
+        <v>66.5</v>
+      </c>
+      <c r="BO48" s="7">
+        <v>44.5</v>
+      </c>
+      <c r="BP48" s="7">
+        <v>48.3</v>
+      </c>
+      <c r="BQ48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="BR48" s="7">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="BS48" s="7">
+        <v>49.3</v>
+      </c>
+      <c r="BT48" s="7">
+        <v>53.2</v>
+      </c>
+      <c r="BU48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="BV48" s="7">
+        <v>70.5</v>
+      </c>
+      <c r="BW48" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="BX48" s="7">
+        <v>48.7</v>
+      </c>
+      <c r="BY48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="BZ48" s="7">
+        <v>65.8</v>
+      </c>
+      <c r="CA48" s="7">
+        <v>47.4</v>
+      </c>
+      <c r="CB48" s="7">
+        <v>52.9</v>
+      </c>
+      <c r="CC48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="CD48" s="7">
+        <v>69.5</v>
+      </c>
+      <c r="CE48" s="7">
+        <v>61.1</v>
+      </c>
+      <c r="CF48" s="7">
+        <v>62.7</v>
+      </c>
+      <c r="CG48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="CH48" s="7">
+        <v>62.7</v>
+      </c>
+      <c r="CI48" s="7">
+        <v>40.6</v>
+      </c>
+      <c r="CJ48" s="7">
+        <v>44.3</v>
+      </c>
+      <c r="CK48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="CL48" s="7">
+        <v>60.1</v>
+      </c>
+      <c r="CM48" s="7">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="CN48" s="7">
+        <v>40.5</v>
+      </c>
+      <c r="CO48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="CP48" s="7">
+        <v>60.5</v>
+      </c>
+      <c r="CQ48" s="7">
+        <v>33.6</v>
+      </c>
+      <c r="CR48" s="7">
+        <v>41.4</v>
+      </c>
+      <c r="CS48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="CT48" s="7">
+        <v>57.55</v>
+      </c>
+      <c r="CU48" s="7">
+        <v>40.6</v>
+      </c>
+      <c r="CV48" s="7">
+        <v>44.9</v>
+      </c>
+      <c r="CW48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="CX48" s="7">
+        <v>59.75</v>
+      </c>
+      <c r="CY48" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="CZ48" s="7">
+        <v>46.55</v>
+      </c>
+      <c r="DA48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="DB48" s="7">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="DC48" s="7">
+        <v>49.6</v>
+      </c>
+      <c r="DD48" s="7">
+        <v>53</v>
+      </c>
+      <c r="DE48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="DF48" s="7">
+        <v>63.65</v>
+      </c>
+      <c r="DG48" s="7">
+        <v>51.15</v>
+      </c>
+      <c r="DH48" s="7">
+        <v>54.1</v>
+      </c>
+      <c r="DI48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="DJ48" s="7">
+        <v>63.65</v>
+      </c>
+      <c r="DK48" s="7">
+        <v>55.1</v>
+      </c>
+      <c r="DL48" s="7">
+        <v>58.55</v>
+      </c>
+      <c r="DM48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="DN48" s="7">
+        <v>59.7</v>
+      </c>
+      <c r="DO48" s="7">
+        <v>46.4</v>
+      </c>
+      <c r="DP48" s="7">
+        <v>49.05</v>
+      </c>
+      <c r="DQ48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="DR48" s="7">
+        <v>58.05</v>
+      </c>
+      <c r="DS48" s="7">
+        <v>44.5</v>
+      </c>
+      <c r="DT48" s="7">
+        <v>48.75</v>
+      </c>
+      <c r="DU48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="DV48" s="7">
+        <v>63.1</v>
+      </c>
+      <c r="DW48" s="7">
+        <v>53.05</v>
+      </c>
+      <c r="DX48" s="7">
+        <v>54.8</v>
+      </c>
+      <c r="DY48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="DZ48" s="7">
+        <v>58.3</v>
+      </c>
+      <c r="EA48" s="7">
+        <v>39.25</v>
+      </c>
+      <c r="EB48" s="7">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="EC48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="ED48" s="7">
+        <v>55.55</v>
+      </c>
+      <c r="EE48" s="7">
+        <v>28.25</v>
+      </c>
+      <c r="EF48" s="7">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="EG48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="EH48" s="7">
+        <v>57.4</v>
+      </c>
+      <c r="EI48" s="7">
+        <v>49.9</v>
+      </c>
+      <c r="EJ48" s="7">
+        <v>52.8</v>
+      </c>
+      <c r="EK48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="EL48" s="7">
+        <v>54.5</v>
+      </c>
+      <c r="EM48" s="7">
+        <v>55.65</v>
+      </c>
+      <c r="EN48" s="7">
+        <v>56.25</v>
+      </c>
+      <c r="EO48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="EP48" s="7">
+        <v>62.1</v>
+      </c>
+      <c r="EQ48" s="7">
+        <v>35.9</v>
+      </c>
+      <c r="ER48" s="7">
+        <v>40.6</v>
+      </c>
+      <c r="ES48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="ET48" s="7">
+        <v>60.9</v>
+      </c>
+      <c r="EU48" s="7">
+        <v>41.05</v>
+      </c>
+      <c r="EV48" s="7">
+        <v>45.6</v>
+      </c>
+      <c r="EW48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="EX48" s="7">
+        <v>61.6</v>
+      </c>
+      <c r="EY48" s="7">
+        <v>41.8</v>
+      </c>
+      <c r="EZ48" s="7">
+        <v>47.8</v>
+      </c>
+      <c r="FA48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="FB48" s="7">
+        <v>61.9</v>
+      </c>
+      <c r="FC48" s="7">
+        <v>43</v>
+      </c>
+      <c r="FD48" s="7">
+        <v>47.4</v>
+      </c>
+      <c r="FE48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="FF48" s="7">
+        <v>63.7</v>
+      </c>
+      <c r="FG48" s="7">
+        <v>50.8</v>
+      </c>
+      <c r="FH48" s="7">
+        <v>51.2</v>
+      </c>
+      <c r="FI48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="FJ48" s="7">
+        <v>54.3</v>
+      </c>
+      <c r="FK48" s="7">
+        <v>51.4</v>
+      </c>
+      <c r="FL48" s="7">
+        <v>53.65</v>
+      </c>
+      <c r="FM48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="FN48" s="7">
+        <v>63.1</v>
+      </c>
+      <c r="FO48" s="7">
+        <v>44</v>
+      </c>
+      <c r="FP48" s="7">
+        <v>48</v>
+      </c>
+      <c r="FQ48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="FR48" s="7">
+        <v>63.75</v>
+      </c>
+      <c r="FS48" s="7">
+        <v>47.3</v>
+      </c>
+      <c r="FT48" s="7">
+        <v>50.95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:176" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" s="7">
+        <v>56.8</v>
+      </c>
+      <c r="C49" s="7">
+        <v>42.7</v>
+      </c>
+      <c r="D49" s="7">
+        <v>45.9</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F49" s="7">
+        <v>50.4</v>
+      </c>
+      <c r="G49" s="7">
+        <v>36.5</v>
+      </c>
+      <c r="H49" s="7">
+        <v>39.9</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J49" s="7">
+        <v>59.7</v>
+      </c>
+      <c r="K49" s="7">
+        <v>33.4</v>
+      </c>
+      <c r="L49" s="7">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="N49" s="7">
+        <v>51.4</v>
+      </c>
+      <c r="O49" s="7">
+        <v>50.2</v>
+      </c>
+      <c r="P49" s="7">
+        <v>49.7</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="R49" s="7">
+        <v>61.2</v>
+      </c>
+      <c r="S49" s="7">
+        <v>40</v>
+      </c>
+      <c r="T49" s="7">
+        <v>45.3</v>
+      </c>
+      <c r="U49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="V49" s="7">
+        <v>55.8</v>
+      </c>
+      <c r="W49" s="7">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="X49" s="7">
+        <v>41.9</v>
+      </c>
+      <c r="Y49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z49" s="7">
+        <v>65.5</v>
+      </c>
+      <c r="AA49" s="7">
+        <v>48.7</v>
+      </c>
+      <c r="AB49" s="7">
+        <v>51</v>
+      </c>
+      <c r="AC49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD49" s="7">
+        <v>55.2</v>
+      </c>
+      <c r="AE49" s="7">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AF49" s="7">
+        <v>38.75</v>
+      </c>
+      <c r="AG49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH49" s="7">
+        <v>49.6</v>
+      </c>
+      <c r="AI49" s="7">
+        <v>40.5</v>
+      </c>
+      <c r="AJ49" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="AK49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL49" s="7">
+        <v>61.8</v>
+      </c>
+      <c r="AM49" s="7">
+        <v>38</v>
+      </c>
+      <c r="AN49" s="7">
+        <v>43.7</v>
+      </c>
+      <c r="AO49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP49" s="7">
+        <v>58.85</v>
+      </c>
+      <c r="AQ49" s="7">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AR49" s="7">
+        <v>43.1</v>
+      </c>
+      <c r="AS49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT49" s="7">
+        <v>57.3</v>
+      </c>
+      <c r="AU49" s="7">
+        <v>45.2</v>
+      </c>
+      <c r="AV49" s="7">
+        <v>49.3</v>
+      </c>
+      <c r="AW49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AX49" s="7">
+        <v>62.2</v>
+      </c>
+      <c r="AY49" s="7">
+        <v>37.6</v>
+      </c>
+      <c r="AZ49" s="7">
+        <v>43.1</v>
+      </c>
+      <c r="BA49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="BB49" s="7">
+        <v>59.3</v>
+      </c>
+      <c r="BC49" s="7">
+        <v>29.4</v>
+      </c>
+      <c r="BD49" s="7">
+        <v>37.1</v>
+      </c>
+      <c r="BE49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="BF49" s="7">
+        <v>59.5</v>
+      </c>
+      <c r="BG49" s="7">
+        <v>38</v>
+      </c>
+      <c r="BH49" s="7">
+        <v>43.2</v>
+      </c>
+      <c r="BI49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="BJ49" s="7">
+        <v>59.6</v>
+      </c>
+      <c r="BK49" s="7">
+        <v>34</v>
+      </c>
+      <c r="BL49" s="7">
+        <v>40</v>
+      </c>
+      <c r="BM49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="BN49" s="7">
+        <v>58.55</v>
+      </c>
+      <c r="BO49" s="7">
+        <v>43.5</v>
+      </c>
+      <c r="BP49" s="7">
+        <v>49</v>
+      </c>
+      <c r="BQ49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="BR49" s="7">
+        <v>60</v>
+      </c>
+      <c r="BS49" s="7">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="BT49" s="7">
+        <v>43.55</v>
+      </c>
+      <c r="BU49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="BV49" s="7">
+        <v>62</v>
+      </c>
+      <c r="BW49" s="7">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="BX49" s="7">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="BY49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ49" s="7">
+        <v>59.3</v>
+      </c>
+      <c r="CA49" s="7">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="CB49" s="7">
+        <v>42</v>
+      </c>
+      <c r="CC49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="CD49" s="7">
+        <v>62.75</v>
+      </c>
+      <c r="CE49" s="7">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="CF49" s="7">
+        <v>46.15</v>
+      </c>
+      <c r="CG49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="CH49" s="7">
+        <v>56.7</v>
+      </c>
+      <c r="CI49" s="7">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="CJ49" s="7">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="CK49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="CL49" s="7">
+        <v>56.55</v>
+      </c>
+      <c r="CM49" s="7">
+        <v>29.15</v>
+      </c>
+      <c r="CN49" s="7">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="CO49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="CP49" s="7">
+        <v>55.7</v>
+      </c>
+      <c r="CQ49" s="7">
+        <v>31.3</v>
+      </c>
+      <c r="CR49" s="7">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="CS49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="CT49" s="7">
+        <v>63.3</v>
+      </c>
+      <c r="CU49" s="7">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="CV49" s="7">
+        <v>46.6</v>
+      </c>
+      <c r="CW49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="CX49" s="7">
+        <v>53.7</v>
+      </c>
+      <c r="CY49" s="7">
+        <v>30.6</v>
+      </c>
+      <c r="CZ49" s="7">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="DA49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="DB49" s="7">
+        <v>63.1</v>
+      </c>
+      <c r="DC49" s="7">
+        <v>50</v>
+      </c>
+      <c r="DD49" s="7">
+        <v>53.6</v>
+      </c>
+      <c r="DE49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="DF49" s="7">
+        <v>56.3</v>
+      </c>
+      <c r="DG49" s="7">
+        <v>31.3</v>
+      </c>
+      <c r="DH49" s="7">
+        <v>37.4</v>
+      </c>
+      <c r="DI49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="DJ49" s="7">
+        <v>66</v>
+      </c>
+      <c r="DK49" s="7">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="DL49" s="7">
+        <v>45.7</v>
+      </c>
+      <c r="DM49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="DN49" s="7">
+        <v>54.5</v>
+      </c>
+      <c r="DO49" s="7">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="DP49" s="7">
+        <v>41.2</v>
+      </c>
+      <c r="DQ49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="DR49" s="7">
+        <v>53.3</v>
+      </c>
+      <c r="DS49" s="7">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="DT49" s="7">
+        <v>38.6</v>
+      </c>
+      <c r="DU49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="DV49" s="7">
+        <v>56.35</v>
+      </c>
+      <c r="DW49" s="7">
+        <v>40.4</v>
+      </c>
+      <c r="DX49" s="7">
+        <v>44.1</v>
+      </c>
+      <c r="DY49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="DZ49" s="7">
+        <v>0</v>
+      </c>
+      <c r="EA49" s="7">
+        <v>0</v>
+      </c>
+      <c r="EB49" s="7">
+        <v>0</v>
+      </c>
+      <c r="EC49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="ED49" s="7">
+        <v>54.05</v>
+      </c>
+      <c r="EE49" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="EF49" s="7">
+        <v>31.4</v>
+      </c>
+      <c r="EG49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="EH49" s="7">
+        <v>56.6</v>
+      </c>
+      <c r="EI49" s="7">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="EJ49" s="7">
+        <v>44.5</v>
+      </c>
+      <c r="EK49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="EL49" s="7">
+        <v>50.3</v>
+      </c>
+      <c r="EM49" s="7">
+        <v>45.8</v>
+      </c>
+      <c r="EN49" s="7">
+        <v>46.7</v>
+      </c>
+      <c r="EO49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="EP49" s="7">
+        <v>58.7</v>
+      </c>
+      <c r="EQ49" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="ER49" s="7">
+        <v>34.4</v>
+      </c>
+      <c r="ES49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="ET49" s="7">
+        <v>57.2</v>
+      </c>
+      <c r="EU49" s="7">
+        <v>34</v>
+      </c>
+      <c r="EV49" s="7">
+        <v>39.6</v>
+      </c>
+      <c r="EW49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="EX49" s="7">
+        <v>57.2</v>
+      </c>
+      <c r="EY49" s="7">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="EZ49" s="7">
+        <v>42.4</v>
+      </c>
+      <c r="FA49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="FB49" s="7">
+        <v>54.7</v>
+      </c>
+      <c r="FC49" s="7">
+        <v>31</v>
+      </c>
+      <c r="FD49" s="7">
+        <v>37</v>
+      </c>
+      <c r="FE49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="FF49" s="7">
+        <v>52.6</v>
+      </c>
+      <c r="FG49" s="7">
+        <v>43</v>
+      </c>
+      <c r="FH49" s="7">
+        <v>44.8</v>
+      </c>
+      <c r="FI49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="FJ49" s="7">
+        <v>50.7</v>
+      </c>
+      <c r="FK49" s="7">
+        <v>45.6</v>
+      </c>
+      <c r="FL49" s="7">
+        <v>46.8</v>
+      </c>
+      <c r="FM49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="FN49" s="7">
+        <v>52.5</v>
+      </c>
+      <c r="FO49" s="7">
+        <v>38.5</v>
+      </c>
+      <c r="FP49" s="7">
+        <v>41.65</v>
+      </c>
+      <c r="FQ49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="FR49" s="7">
+        <v>53.8</v>
+      </c>
+      <c r="FS49" s="7">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="FT49" s="7">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:176" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" s="7">
+        <v>57.1</v>
+      </c>
+      <c r="C50" s="7">
+        <v>41</v>
+      </c>
+      <c r="D50" s="7">
+        <v>43.8</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F50" s="7">
+        <v>49.8</v>
+      </c>
+      <c r="G50" s="7">
+        <v>36.4</v>
+      </c>
+      <c r="H50" s="7">
+        <v>38.950000000000003</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J50" s="7">
+        <v>57.8</v>
+      </c>
+      <c r="K50" s="7">
+        <v>30.3</v>
+      </c>
+      <c r="L50" s="7">
+        <v>36.1</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="N50" s="7">
+        <v>51.55</v>
+      </c>
+      <c r="O50" s="7">
+        <v>47.8</v>
+      </c>
+      <c r="P50" s="7">
+        <v>50.95</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="R50" s="7">
+        <v>58.4</v>
+      </c>
+      <c r="S50" s="7">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="T50" s="7">
+        <v>44.1</v>
+      </c>
+      <c r="U50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="V50" s="7">
+        <v>50.9</v>
+      </c>
+      <c r="W50" s="7">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="X50" s="7">
+        <v>38.6</v>
+      </c>
+      <c r="Y50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z50" s="7">
+        <v>57.1</v>
+      </c>
+      <c r="AA50" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="AB50" s="7">
+        <v>48.6</v>
+      </c>
+      <c r="AC50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD50" s="7">
+        <v>56.1</v>
+      </c>
+      <c r="AE50" s="7">
+        <v>33.35</v>
+      </c>
+      <c r="AF50" s="7">
+        <v>39.6</v>
+      </c>
+      <c r="AG50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH50" s="7">
+        <v>50.3</v>
+      </c>
+      <c r="AI50" s="7">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="AJ50" s="7">
+        <v>42.4</v>
+      </c>
+      <c r="AK50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL50" s="7">
+        <v>61.25</v>
+      </c>
+      <c r="AM50" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="AN50" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="AO50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AP50" s="7">
+        <v>54.05</v>
+      </c>
+      <c r="AQ50" s="7">
+        <v>33.25</v>
+      </c>
+      <c r="AR50" s="7">
+        <v>37.9</v>
+      </c>
+      <c r="AS50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT50" s="7">
+        <v>64.5</v>
+      </c>
+      <c r="AU50" s="7">
+        <v>38</v>
+      </c>
+      <c r="AV50" s="7">
+        <v>42.4</v>
+      </c>
+      <c r="AW50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AX50" s="7">
+        <v>60.7</v>
+      </c>
+      <c r="AY50" s="7">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AZ50" s="7">
+        <v>44.3</v>
+      </c>
+      <c r="BA50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="BB50" s="7">
+        <v>55.35</v>
+      </c>
+      <c r="BC50" s="7">
+        <v>26.2</v>
+      </c>
+      <c r="BD50" s="7">
+        <v>34.9</v>
+      </c>
+      <c r="BE50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="BF50" s="7">
+        <v>56</v>
+      </c>
+      <c r="BG50" s="7">
+        <v>34.4</v>
+      </c>
+      <c r="BH50" s="7">
+        <v>40.4</v>
+      </c>
+      <c r="BI50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="BJ50" s="7">
+        <v>58.75</v>
+      </c>
+      <c r="BK50" s="7">
+        <v>30.6</v>
+      </c>
+      <c r="BL50" s="7">
+        <v>37</v>
+      </c>
+      <c r="BM50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="BN50" s="7">
+        <v>55.25</v>
+      </c>
+      <c r="BO50" s="7">
+        <v>32.75</v>
+      </c>
+      <c r="BP50" s="7">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="BQ50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="BR50" s="7">
+        <v>58.4</v>
+      </c>
+      <c r="BS50" s="7">
+        <v>31</v>
+      </c>
+      <c r="BT50" s="7">
+        <v>37.5</v>
+      </c>
+      <c r="BU50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="BV50" s="7">
+        <v>63.6</v>
+      </c>
+      <c r="BW50" s="7">
+        <v>30</v>
+      </c>
+      <c r="BX50" s="7">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="BY50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="BZ50" s="7">
+        <v>60.5</v>
+      </c>
+      <c r="CA50" s="7">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="CB50" s="7">
+        <v>41.1</v>
+      </c>
+      <c r="CC50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="CD50" s="7">
+        <v>64.75</v>
+      </c>
+      <c r="CE50" s="7">
+        <v>38.75</v>
+      </c>
+      <c r="CF50" s="7">
+        <v>43.95</v>
+      </c>
+      <c r="CG50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="CH50" s="7">
+        <v>55.95</v>
+      </c>
+      <c r="CI50" s="7">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="CJ50" s="7">
+        <v>40.15</v>
+      </c>
+      <c r="CK50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="CL50" s="7">
+        <v>0</v>
+      </c>
+      <c r="CM50" s="7">
+        <v>0</v>
+      </c>
+      <c r="CN50" s="7">
+        <v>0</v>
+      </c>
+      <c r="CO50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="CP50" s="7">
+        <v>56.1</v>
+      </c>
+      <c r="CQ50" s="7">
+        <v>33</v>
+      </c>
+      <c r="CR50" s="7">
+        <v>36.4</v>
+      </c>
+      <c r="CS50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="CT50" s="7">
+        <v>61.95</v>
+      </c>
+      <c r="CU50" s="7">
+        <v>43.8</v>
+      </c>
+      <c r="CV50" s="7">
+        <v>49.25</v>
+      </c>
+      <c r="CW50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="CX50" s="7">
+        <v>53.2</v>
+      </c>
+      <c r="CY50" s="7">
+        <v>32</v>
+      </c>
+      <c r="CZ50" s="7">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="DA50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="DB50" s="7">
+        <v>50.1</v>
+      </c>
+      <c r="DC50" s="7">
+        <v>34.6</v>
+      </c>
+      <c r="DD50" s="7">
+        <v>40.9</v>
+      </c>
+      <c r="DE50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="DF50" s="7">
+        <v>53.65</v>
+      </c>
+      <c r="DG50" s="7">
+        <v>29.3</v>
+      </c>
+      <c r="DH50" s="7">
+        <v>35.35</v>
+      </c>
+      <c r="DI50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="DJ50" s="7">
+        <v>81.3</v>
+      </c>
+      <c r="DK50" s="7">
+        <v>48.2</v>
+      </c>
+      <c r="DL50" s="7">
+        <v>58.8</v>
+      </c>
+      <c r="DM50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="DN50" s="7">
+        <v>52.85</v>
+      </c>
+      <c r="DO50" s="7">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="DP50" s="7">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="DQ50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="DR50" s="7">
+        <v>45.3</v>
+      </c>
+      <c r="DS50" s="7">
+        <v>27</v>
+      </c>
+      <c r="DT50" s="7">
+        <v>29.95</v>
+      </c>
+      <c r="DU50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="DV50" s="7">
+        <v>54.6</v>
+      </c>
+      <c r="DW50" s="7">
+        <v>34.6</v>
+      </c>
+      <c r="DX50" s="7">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="DY50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="DZ50" s="7">
+        <v>0</v>
+      </c>
+      <c r="EA50" s="7">
+        <v>0</v>
+      </c>
+      <c r="EB50" s="7">
+        <v>0</v>
+      </c>
+      <c r="EC50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="ED50" s="7">
+        <v>52</v>
+      </c>
+      <c r="EE50" s="7">
+        <v>22.4</v>
+      </c>
+      <c r="EF50" s="7">
+        <v>29</v>
+      </c>
+      <c r="EG50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="EH50" s="7">
+        <v>54.65</v>
+      </c>
+      <c r="EI50" s="7">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="EJ50" s="7">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="EK50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="EL50" s="7">
+        <v>47.8</v>
+      </c>
+      <c r="EM50" s="7">
+        <v>43.4</v>
+      </c>
+      <c r="EN50" s="7">
+        <v>44.5</v>
+      </c>
+      <c r="EO50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="EP50" s="7">
+        <v>53.6</v>
+      </c>
+      <c r="EQ50" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="ER50" s="7">
+        <v>31.6</v>
+      </c>
+      <c r="ES50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="ET50" s="7">
+        <v>59.3</v>
+      </c>
+      <c r="EU50" s="7">
+        <v>34</v>
+      </c>
+      <c r="EV50" s="7">
+        <v>38.6</v>
+      </c>
+      <c r="EW50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="EX50" s="7">
+        <v>55.2</v>
+      </c>
+      <c r="EY50" s="7">
+        <v>33.5</v>
+      </c>
+      <c r="EZ50" s="7">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="FA50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="FB50" s="7">
+        <v>53.3</v>
+      </c>
+      <c r="FC50" s="7">
+        <v>29.8</v>
+      </c>
+      <c r="FD50" s="7">
+        <v>35.1</v>
+      </c>
+      <c r="FE50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="FF50" s="7">
+        <v>54.5</v>
+      </c>
+      <c r="FG50" s="7">
+        <v>34.6</v>
+      </c>
+      <c r="FH50" s="7">
+        <v>39</v>
+      </c>
+      <c r="FI50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="FJ50" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="FK50" s="7">
+        <v>44.35</v>
+      </c>
+      <c r="FL50" s="7">
+        <v>45.85</v>
+      </c>
+      <c r="FM50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="FN50" s="7">
+        <v>50.7</v>
+      </c>
+      <c r="FO50" s="7">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="FP50" s="7">
+        <v>37.5</v>
+      </c>
+      <c r="FQ50" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="FR50" s="7">
+        <v>51.3</v>
+      </c>
+      <c r="FS50" s="7">
+        <v>37.5</v>
+      </c>
+      <c r="FT50" s="7">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:176" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B51" s="7">
+        <v>56</v>
+      </c>
+      <c r="C51" s="7">
+        <v>42</v>
+      </c>
+      <c r="D51" s="7">
+        <v>45.3</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F51" s="7">
+        <v>48.25</v>
+      </c>
+      <c r="G51" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="H51" s="7">
+        <v>38.15</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J51" s="7">
+        <v>58.35</v>
+      </c>
+      <c r="K51" s="7">
+        <v>30.3</v>
+      </c>
+      <c r="L51" s="7">
+        <v>37.5</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="N51" s="7">
+        <v>50.7</v>
+      </c>
+      <c r="O51" s="7">
+        <v>45.7</v>
+      </c>
+      <c r="P51" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="R51" s="7">
+        <v>60</v>
+      </c>
+      <c r="S51" s="7">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="T51" s="7">
+        <v>42.7</v>
+      </c>
+      <c r="U51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="V51" s="7">
+        <v>52.8</v>
+      </c>
+      <c r="W51" s="7">
+        <v>33.1</v>
+      </c>
+      <c r="X51" s="7">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="Y51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z51" s="7">
+        <v>72.3</v>
+      </c>
+      <c r="AA51" s="7">
+        <v>50.1</v>
+      </c>
+      <c r="AB51" s="7">
+        <v>58.4</v>
+      </c>
+      <c r="AC51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD51" s="7">
+        <v>51.75</v>
+      </c>
+      <c r="AE51" s="7">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AF51" s="7">
+        <v>37.65</v>
+      </c>
+      <c r="AG51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH51" s="7">
+        <v>49</v>
+      </c>
+      <c r="AI51" s="7">
+        <v>40</v>
+      </c>
+      <c r="AJ51" s="7">
+        <v>42.2</v>
+      </c>
+      <c r="AK51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL51" s="7">
+        <v>59.7</v>
+      </c>
+      <c r="AM51" s="7">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="AN51" s="7">
+        <v>41.3</v>
+      </c>
+      <c r="AO51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP51" s="7">
+        <v>57.5</v>
+      </c>
+      <c r="AQ51" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="AR51" s="7">
+        <v>41.2</v>
+      </c>
+      <c r="AS51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT51" s="7">
+        <v>63.35</v>
+      </c>
+      <c r="AU51" s="7">
+        <v>39.5</v>
+      </c>
+      <c r="AV51" s="7">
+        <v>44.9</v>
+      </c>
+      <c r="AW51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX51" s="7">
+        <v>61.3</v>
+      </c>
+      <c r="AY51" s="7">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AZ51" s="7">
+        <v>39.6</v>
+      </c>
+      <c r="BA51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="BB51" s="7">
+        <v>60.25</v>
+      </c>
+      <c r="BC51" s="7">
+        <v>28.45</v>
+      </c>
+      <c r="BD51" s="7">
+        <v>36.5</v>
+      </c>
+      <c r="BE51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="BF51" s="7">
+        <v>58.35</v>
+      </c>
+      <c r="BG51" s="7">
+        <v>35.9</v>
+      </c>
+      <c r="BH51" s="7">
+        <v>41.35</v>
+      </c>
+      <c r="BI51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="BJ51" s="7">
+        <v>58.6</v>
+      </c>
+      <c r="BK51" s="7">
+        <v>30.6</v>
+      </c>
+      <c r="BL51" s="7">
+        <v>38</v>
+      </c>
+      <c r="BM51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="BN51" s="7">
+        <v>49.7</v>
+      </c>
+      <c r="BO51" s="7">
+        <v>37.4</v>
+      </c>
+      <c r="BP51" s="7">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="BQ51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="BR51" s="7">
+        <v>59.9</v>
+      </c>
+      <c r="BS51" s="7">
+        <v>34</v>
+      </c>
+      <c r="BT51" s="7">
+        <v>40</v>
+      </c>
+      <c r="BU51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="BV51" s="7">
+        <v>58.2</v>
+      </c>
+      <c r="BW51" s="7">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="BX51" s="7">
+        <v>39.9</v>
+      </c>
+      <c r="BY51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="BZ51" s="7">
+        <v>57.1</v>
+      </c>
+      <c r="CA51" s="7">
+        <v>36.9</v>
+      </c>
+      <c r="CB51" s="7">
+        <v>42.3</v>
+      </c>
+      <c r="CC51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="CD51" s="7">
+        <v>51</v>
+      </c>
+      <c r="CE51" s="7">
+        <v>31.3</v>
+      </c>
+      <c r="CF51" s="7">
+        <v>37.5</v>
+      </c>
+      <c r="CG51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="CH51" s="7">
+        <v>56.9</v>
+      </c>
+      <c r="CI51" s="7">
+        <v>31.7</v>
+      </c>
+      <c r="CJ51" s="7">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="CK51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="CL51" s="7">
+        <v>63.9</v>
+      </c>
+      <c r="CM51" s="7">
+        <v>20.3</v>
+      </c>
+      <c r="CN51" s="7">
+        <v>31.2</v>
+      </c>
+      <c r="CO51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="CP51" s="7">
+        <v>58.9</v>
+      </c>
+      <c r="CQ51" s="7">
+        <v>30.4</v>
+      </c>
+      <c r="CR51" s="7">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="CS51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="CT51" s="7">
+        <v>60</v>
+      </c>
+      <c r="CU51" s="7">
+        <v>38.6</v>
+      </c>
+      <c r="CV51" s="7">
+        <v>43.9</v>
+      </c>
+      <c r="CW51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="CX51" s="7">
+        <v>50.9</v>
+      </c>
+      <c r="CY51" s="7">
+        <v>28.8</v>
+      </c>
+      <c r="CZ51" s="7">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="DA51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="DB51" s="7">
+        <v>44.2</v>
+      </c>
+      <c r="DC51" s="7">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="DD51" s="7">
+        <v>42.7</v>
+      </c>
+      <c r="DE51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="DF51" s="7">
+        <v>52.7</v>
+      </c>
+      <c r="DG51" s="7">
+        <v>28.3</v>
+      </c>
+      <c r="DH51" s="7">
+        <v>34.25</v>
+      </c>
+      <c r="DI51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="DJ51" s="7">
+        <v>69.5</v>
+      </c>
+      <c r="DK51" s="7">
+        <v>39.4</v>
+      </c>
+      <c r="DL51" s="7">
+        <v>49.2</v>
+      </c>
+      <c r="DM51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="DN51" s="7">
+        <v>51.3</v>
+      </c>
+      <c r="DO51" s="7">
+        <v>33.9</v>
+      </c>
+      <c r="DP51" s="7">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="DQ51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="DR51" s="7">
+        <v>47.9</v>
+      </c>
+      <c r="DS51" s="7">
+        <v>27.5</v>
+      </c>
+      <c r="DT51" s="7">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="DU51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="DV51" s="7">
+        <v>54.75</v>
+      </c>
+      <c r="DW51" s="7">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="DX51" s="7">
+        <v>40.6</v>
+      </c>
+      <c r="DY51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="DZ51" s="7">
+        <v>0</v>
+      </c>
+      <c r="EA51" s="7">
+        <v>0</v>
+      </c>
+      <c r="EB51" s="7">
+        <v>0</v>
+      </c>
+      <c r="EC51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="ED51" s="7">
+        <v>50.9</v>
+      </c>
+      <c r="EE51" s="7">
+        <v>22.4</v>
+      </c>
+      <c r="EF51" s="7">
+        <v>29.6</v>
+      </c>
+      <c r="EG51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="EH51" s="7">
+        <v>52.4</v>
+      </c>
+      <c r="EI51" s="7">
+        <v>37</v>
+      </c>
+      <c r="EJ51" s="7">
+        <v>41.1</v>
+      </c>
+      <c r="EK51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="EL51" s="7">
+        <v>47.3</v>
+      </c>
+      <c r="EM51" s="7">
+        <v>42.4</v>
+      </c>
+      <c r="EN51" s="7">
+        <v>43.3</v>
+      </c>
+      <c r="EO51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="EP51" s="7">
+        <v>56.55</v>
+      </c>
+      <c r="EQ51" s="7">
+        <v>25.05</v>
+      </c>
+      <c r="ER51" s="7">
+        <v>33.4</v>
+      </c>
+      <c r="ES51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="ET51" s="7">
+        <v>53.9</v>
+      </c>
+      <c r="EU51" s="7">
+        <v>30.8</v>
+      </c>
+      <c r="EV51" s="7">
+        <v>36.9</v>
+      </c>
+      <c r="EW51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="EX51" s="7">
+        <v>55.85</v>
+      </c>
+      <c r="EY51" s="7">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="EZ51" s="7">
+        <v>41.2</v>
+      </c>
+      <c r="FA51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="FB51" s="7">
+        <v>53.8</v>
+      </c>
+      <c r="FC51" s="7">
+        <v>29.8</v>
+      </c>
+      <c r="FD51" s="7">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="FE51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="FF51" s="7">
+        <v>49.8</v>
+      </c>
+      <c r="FG51" s="7">
+        <v>39.5</v>
+      </c>
+      <c r="FH51" s="7">
+        <v>41.8</v>
+      </c>
+      <c r="FI51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="FJ51" s="7">
+        <v>50.9</v>
+      </c>
+      <c r="FK51" s="7">
+        <v>46.2</v>
+      </c>
+      <c r="FL51" s="7">
+        <v>46.7</v>
+      </c>
+      <c r="FM51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="FN51" s="7">
+        <v>53.2</v>
+      </c>
+      <c r="FO51" s="7">
+        <v>36</v>
+      </c>
+      <c r="FP51" s="7">
+        <v>40.9</v>
+      </c>
+      <c r="FQ51" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="FR51" s="7">
+        <v>51</v>
+      </c>
+      <c r="FS51" s="7">
+        <v>37.4</v>
+      </c>
+      <c r="FT51" s="7">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:176" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" s="7">
+        <v>66.2</v>
+      </c>
+      <c r="C52" s="7">
+        <v>50.15</v>
+      </c>
+      <c r="D52" s="7">
+        <v>54.6</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F52" s="7">
+        <v>53.6</v>
+      </c>
+      <c r="G52" s="7">
+        <v>46.8</v>
+      </c>
+      <c r="H52" s="7">
+        <v>48.1</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="J52" s="7">
+        <v>70.3</v>
+      </c>
+      <c r="K52" s="7">
+        <v>54.25</v>
+      </c>
+      <c r="L52" s="7">
+        <v>57.3</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="N52" s="7">
+        <v>53</v>
+      </c>
+      <c r="O52" s="7">
+        <v>45.3</v>
+      </c>
+      <c r="P52" s="7">
+        <v>50.7</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="R52" s="7">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="S52" s="7">
+        <v>50.4</v>
+      </c>
+      <c r="T52" s="7">
+        <v>53.9</v>
+      </c>
+      <c r="U52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="V52" s="7">
+        <v>64.45</v>
+      </c>
+      <c r="W52" s="7">
+        <v>49.75</v>
+      </c>
+      <c r="X52" s="7">
+        <v>53.25</v>
+      </c>
+      <c r="Y52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z52" s="7">
+        <v>60.45</v>
+      </c>
+      <c r="AA52" s="7">
+        <v>48.85</v>
+      </c>
+      <c r="AB52" s="7">
+        <v>50.95</v>
+      </c>
+      <c r="AC52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD52" s="7">
+        <v>57.3</v>
+      </c>
+      <c r="AE52" s="7">
+        <v>43.9</v>
+      </c>
+      <c r="AF52" s="7">
+        <v>48.4</v>
+      </c>
+      <c r="AG52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH52" s="7">
+        <v>54.2</v>
+      </c>
+      <c r="AI52" s="7">
+        <v>50.2</v>
+      </c>
+      <c r="AJ52" s="7">
+        <v>51.3</v>
+      </c>
+      <c r="AK52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL52" s="7">
+        <v>73</v>
+      </c>
+      <c r="AM52" s="7">
+        <v>54.7</v>
+      </c>
+      <c r="AN52" s="7">
+        <v>59.4</v>
+      </c>
+      <c r="AO52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="AP52" s="7">
+        <v>70.5</v>
+      </c>
+      <c r="AQ52" s="7">
+        <v>50.2</v>
+      </c>
+      <c r="AR52" s="7">
+        <v>56.05</v>
+      </c>
+      <c r="AS52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT52" s="7">
+        <v>63.15</v>
+      </c>
+      <c r="AU52" s="7">
+        <v>54.1</v>
+      </c>
+      <c r="AV52" s="7">
+        <v>55.75</v>
+      </c>
+      <c r="AW52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX52" s="7">
+        <v>73.650000000000006</v>
+      </c>
+      <c r="AY52" s="7">
+        <v>50.3</v>
+      </c>
+      <c r="AZ52" s="7">
+        <v>57.25</v>
+      </c>
+      <c r="BA52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="BB52" s="7">
+        <v>68.349999999999994</v>
+      </c>
+      <c r="BC52" s="7">
+        <v>47.75</v>
+      </c>
+      <c r="BD52" s="7">
+        <v>53.55</v>
+      </c>
+      <c r="BE52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="BF52" s="7">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="BG52" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="BH52" s="7">
+        <v>51.5</v>
+      </c>
+      <c r="BI52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="BJ52" s="7">
+        <v>65</v>
+      </c>
+      <c r="BK52" s="7">
+        <v>46.7</v>
+      </c>
+      <c r="BL52" s="7">
+        <v>50.7</v>
+      </c>
+      <c r="BM52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="BN52" s="7">
+        <v>68.3</v>
+      </c>
+      <c r="BO52" s="7">
+        <v>50.05</v>
+      </c>
+      <c r="BP52" s="7">
+        <v>55.75</v>
+      </c>
+      <c r="BQ52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="BR52" s="7">
+        <v>63.7</v>
+      </c>
+      <c r="BS52" s="7">
+        <v>51.8</v>
+      </c>
+      <c r="BT52" s="7">
+        <v>53.4</v>
+      </c>
+      <c r="BU52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="BV52" s="7">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="BW52" s="7">
+        <v>45.5</v>
+      </c>
+      <c r="BX52" s="7">
+        <v>50.75</v>
+      </c>
+      <c r="BY52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="BZ52" s="7">
+        <v>67.25</v>
+      </c>
+      <c r="CA52" s="7">
+        <v>51.55</v>
+      </c>
+      <c r="CB52" s="7">
+        <v>55.1</v>
+      </c>
+      <c r="CC52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD52" s="7">
+        <v>58.1</v>
+      </c>
+      <c r="CE52" s="7">
+        <v>47.6</v>
+      </c>
+      <c r="CF52" s="7">
+        <v>49.9</v>
+      </c>
+      <c r="CG52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="CH52" s="7">
+        <v>63.55</v>
+      </c>
+      <c r="CI52" s="7">
+        <v>43.15</v>
+      </c>
+      <c r="CJ52" s="7">
+        <v>48</v>
+      </c>
+      <c r="CK52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="CL52" s="7">
+        <v>56.65</v>
+      </c>
+      <c r="CM52" s="7">
+        <v>36.5</v>
+      </c>
+      <c r="CN52" s="7">
+        <v>43.25</v>
+      </c>
+      <c r="CO52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="CP52" s="7">
+        <v>62.3</v>
+      </c>
+      <c r="CQ52" s="7">
+        <v>40.5</v>
+      </c>
+      <c r="CR52" s="7">
+        <v>46.1</v>
+      </c>
+      <c r="CS52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="CT52" s="7">
+        <v>57.2</v>
+      </c>
+      <c r="CU52" s="7">
+        <v>44.4</v>
+      </c>
+      <c r="CV52" s="7">
+        <v>48.05</v>
+      </c>
+      <c r="CW52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="CX52" s="7">
+        <v>63.85</v>
+      </c>
+      <c r="CY52" s="7">
+        <v>46.85</v>
+      </c>
+      <c r="CZ52" s="7">
+        <v>51.65</v>
+      </c>
+      <c r="DA52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="DB52" s="7">
+        <v>62</v>
+      </c>
+      <c r="DC52" s="7">
+        <v>43.4</v>
+      </c>
+      <c r="DD52" s="7">
+        <v>49.15</v>
+      </c>
+      <c r="DE52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="DF52" s="7">
+        <v>62.8</v>
+      </c>
+      <c r="DG52" s="7">
+        <v>48.5</v>
+      </c>
+      <c r="DH52" s="7">
+        <v>51.1</v>
+      </c>
+      <c r="DI52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="DJ52" s="7">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="DK52" s="7">
+        <v>48.2</v>
+      </c>
+      <c r="DL52" s="7">
+        <v>51.9</v>
+      </c>
+      <c r="DM52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="DN52" s="7">
+        <v>58.45</v>
+      </c>
+      <c r="DO52" s="7">
+        <v>45.2</v>
+      </c>
+      <c r="DP52" s="7">
+        <v>47.55</v>
+      </c>
+      <c r="DQ52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="DR52" s="7">
+        <v>59.4</v>
+      </c>
+      <c r="DS52" s="7">
+        <v>39.4</v>
+      </c>
+      <c r="DT52" s="7">
+        <v>44.3</v>
+      </c>
+      <c r="DU52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="DV52" s="7">
+        <v>60.5</v>
+      </c>
+      <c r="DW52" s="7">
+        <v>52.95</v>
+      </c>
+      <c r="DX52" s="7">
+        <v>54.65</v>
+      </c>
+      <c r="DY52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="DZ52" s="7">
+        <v>45</v>
+      </c>
+      <c r="EA52" s="7">
+        <v>26.1</v>
+      </c>
+      <c r="EB52" s="7">
+        <v>30.35</v>
+      </c>
+      <c r="EC52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="ED52" s="7">
+        <v>57.7</v>
+      </c>
+      <c r="EE52" s="7">
+        <v>31.3</v>
+      </c>
+      <c r="EF52" s="7">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="EG52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="EH52" s="7">
+        <v>60.55</v>
+      </c>
+      <c r="EI52" s="7">
+        <v>45.95</v>
+      </c>
+      <c r="EJ52" s="7">
+        <v>47.35</v>
+      </c>
+      <c r="EK52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="EL52" s="7">
+        <v>56.1</v>
+      </c>
+      <c r="EM52" s="7">
+        <v>57.5</v>
+      </c>
+      <c r="EN52" s="7">
+        <v>56.6</v>
+      </c>
+      <c r="EO52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="EP52" s="7">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="EQ52" s="7">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="ER52" s="7">
+        <v>44.85</v>
+      </c>
+      <c r="ES52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="ET52" s="7">
+        <v>64.3</v>
+      </c>
+      <c r="EU52" s="7">
+        <v>41</v>
+      </c>
+      <c r="EV52" s="7">
+        <v>46.7</v>
+      </c>
+      <c r="EW52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="EX52" s="7">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="EY52" s="7">
+        <v>49.2</v>
+      </c>
+      <c r="EZ52" s="7">
+        <v>54.7</v>
+      </c>
+      <c r="FA52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="FB52" s="7">
+        <v>62.05</v>
+      </c>
+      <c r="FC52" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="FD52" s="7">
+        <v>46.65</v>
+      </c>
+      <c r="FE52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="FF52" s="7">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="FG52" s="7">
+        <v>57.6</v>
+      </c>
+      <c r="FH52" s="7">
+        <v>57.4</v>
+      </c>
+      <c r="FI52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="FJ52" s="7">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="FK52" s="7">
+        <v>50.5</v>
+      </c>
+      <c r="FL52" s="7">
+        <v>55.6</v>
+      </c>
+      <c r="FM52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="FN52" s="7">
+        <v>63.1</v>
+      </c>
+      <c r="FO52" s="7">
+        <v>46.7</v>
+      </c>
+      <c r="FP52" s="7">
+        <v>49.2</v>
+      </c>
+      <c r="FQ52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="FR52" s="7">
+        <v>63.6</v>
+      </c>
+      <c r="FS52" s="7">
+        <v>48.1</v>
+      </c>
+      <c r="FT52" s="7">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:176" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" s="7">
+        <v>65.5</v>
+      </c>
+      <c r="C53" s="7">
+        <v>36.5</v>
+      </c>
+      <c r="D53" s="7">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F53" s="7">
+        <v>50.3</v>
+      </c>
+      <c r="G53" s="7">
+        <v>45</v>
+      </c>
+      <c r="H53" s="7">
+        <v>45</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="J53" s="7">
+        <v>65.2</v>
+      </c>
+      <c r="K53" s="7">
+        <v>49</v>
+      </c>
+      <c r="L53" s="7">
+        <v>55</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="N53" s="7">
+        <v>44.6</v>
+      </c>
+      <c r="O53" s="7">
+        <v>57.2</v>
+      </c>
+      <c r="P53" s="7">
+        <v>53.5</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="R53" s="7">
+        <v>62.4</v>
+      </c>
+      <c r="S53" s="7">
+        <v>38.65</v>
+      </c>
+      <c r="T53" s="7">
+        <v>42.3</v>
+      </c>
+      <c r="U53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="V53" s="7">
+        <v>55.9</v>
+      </c>
+      <c r="W53" s="7">
+        <v>40.6</v>
+      </c>
+      <c r="X53" s="7">
+        <v>45.3</v>
+      </c>
+      <c r="Y53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z53" s="7">
+        <v>55.4</v>
+      </c>
+      <c r="AA53" s="7">
+        <v>43.3</v>
+      </c>
+      <c r="AB53" s="7">
+        <v>47</v>
+      </c>
+      <c r="AC53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD53" s="7">
+        <v>54.5</v>
+      </c>
+      <c r="AE53" s="7">
+        <v>30.8</v>
+      </c>
+      <c r="AF53" s="7">
+        <v>39.1</v>
+      </c>
+      <c r="AG53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH53" s="7">
+        <v>54.6</v>
+      </c>
+      <c r="AI53" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="AJ53" s="7">
+        <v>46.1</v>
+      </c>
+      <c r="AK53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL53" s="7">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="AM53" s="7">
+        <v>47.5</v>
+      </c>
+      <c r="AN53" s="7">
+        <v>54.7</v>
+      </c>
+      <c r="AO53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AP53" s="7">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="AQ53" s="7">
+        <v>41.5</v>
+      </c>
+      <c r="AR53" s="7">
+        <v>49.9</v>
+      </c>
+      <c r="AS53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT53" s="7">
+        <v>39.6</v>
+      </c>
+      <c r="AU53" s="7">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="AV53" s="7">
+        <v>40.5</v>
+      </c>
+      <c r="AW53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AX53" s="7">
+        <v>55.05</v>
+      </c>
+      <c r="AY53" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="AZ53" s="7">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="BA53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB53" s="7">
+        <v>58.15</v>
+      </c>
+      <c r="BC53" s="7">
+        <v>44.35</v>
+      </c>
+      <c r="BD53" s="7">
+        <v>47.85</v>
+      </c>
+      <c r="BE53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="BF53" s="7">
+        <v>53.4</v>
+      </c>
+      <c r="BG53" s="7">
+        <v>56.7</v>
+      </c>
+      <c r="BH53" s="7">
+        <v>55.9</v>
+      </c>
+      <c r="BI53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ53" s="7">
+        <v>50.5</v>
+      </c>
+      <c r="BK53" s="7">
+        <v>40.6</v>
+      </c>
+      <c r="BL53" s="7">
+        <v>43.55</v>
+      </c>
+      <c r="BM53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="BN53" s="7">
+        <v>55.8</v>
+      </c>
+      <c r="BO53" s="7">
+        <v>38.4</v>
+      </c>
+      <c r="BP53" s="7">
+        <v>46.4</v>
+      </c>
+      <c r="BQ53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="BR53" s="7">
+        <v>68.55</v>
+      </c>
+      <c r="BS53" s="7">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="BT53" s="7">
+        <v>44.7</v>
+      </c>
+      <c r="BU53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="BV53" s="7">
+        <v>80.3</v>
+      </c>
+      <c r="BW53" s="7">
+        <v>49</v>
+      </c>
+      <c r="BX53" s="7">
+        <v>58.5</v>
+      </c>
+      <c r="BY53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="BZ53" s="7">
+        <v>58.15</v>
+      </c>
+      <c r="CA53" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="CB53" s="7">
+        <v>50.25</v>
+      </c>
+      <c r="CC53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="CD53" s="7">
+        <v>57.4</v>
+      </c>
+      <c r="CE53" s="7">
+        <v>32.6</v>
+      </c>
+      <c r="CF53" s="7">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="CG53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="CH53" s="7">
+        <v>53.4</v>
+      </c>
+      <c r="CI53" s="7">
+        <v>28.3</v>
+      </c>
+      <c r="CJ53" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="CK53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="CL53" s="7">
+        <v>15</v>
+      </c>
+      <c r="CM53" s="7">
+        <v>9.65</v>
+      </c>
+      <c r="CN53" s="7">
+        <v>11</v>
+      </c>
+      <c r="CO53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="CP53" s="7">
+        <v>60.2</v>
+      </c>
+      <c r="CQ53" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="CR53" s="7">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="CS53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="CT53" s="7">
+        <v>65.05</v>
+      </c>
+      <c r="CU53" s="7">
+        <v>44.1</v>
+      </c>
+      <c r="CV53" s="7">
+        <v>50.35</v>
+      </c>
+      <c r="CW53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="CX53" s="7">
+        <v>61.3</v>
+      </c>
+      <c r="CY53" s="7">
+        <v>45.4</v>
+      </c>
+      <c r="CZ53" s="7">
+        <v>48.1</v>
+      </c>
+      <c r="DA53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="DB53" s="7">
+        <v>59</v>
+      </c>
+      <c r="DC53" s="7">
+        <v>31.9</v>
+      </c>
+      <c r="DD53" s="7">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="DE53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="DF53" s="7">
+        <v>60.25</v>
+      </c>
+      <c r="DG53" s="7">
+        <v>49.9</v>
+      </c>
+      <c r="DH53" s="7">
+        <v>52.25</v>
+      </c>
+      <c r="DI53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="DJ53" s="7">
+        <v>61.75</v>
+      </c>
+      <c r="DK53" s="7">
+        <v>48.85</v>
+      </c>
+      <c r="DL53" s="7">
+        <v>52.1</v>
+      </c>
+      <c r="DM53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="DN53" s="7">
+        <v>59.5</v>
+      </c>
+      <c r="DO53" s="7">
+        <v>42</v>
+      </c>
+      <c r="DP53" s="7">
+        <v>45.6</v>
+      </c>
+      <c r="DQ53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="DR53" s="7">
+        <v>57.45</v>
+      </c>
+      <c r="DS53" s="7">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="DT53" s="7">
+        <v>40.9</v>
+      </c>
+      <c r="DU53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="DV53" s="7">
+        <v>65</v>
+      </c>
+      <c r="DW53" s="7">
+        <v>44.2</v>
+      </c>
+      <c r="DX53" s="7">
+        <v>47.7</v>
+      </c>
+      <c r="DY53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="DZ53" s="7">
+        <v>54</v>
+      </c>
+      <c r="EA53" s="7">
+        <v>27.2</v>
+      </c>
+      <c r="EB53" s="7">
+        <v>34.6</v>
+      </c>
+      <c r="EC53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="ED53" s="7">
+        <v>53.9</v>
+      </c>
+      <c r="EE53" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="EF53" s="7">
+        <v>30.6</v>
+      </c>
+      <c r="EG53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="EH53" s="7">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="EI53" s="7">
+        <v>48</v>
+      </c>
+      <c r="EJ53" s="7">
+        <v>50.55</v>
+      </c>
+      <c r="EK53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="EL53" s="7">
+        <v>57</v>
+      </c>
+      <c r="EM53" s="7">
+        <v>56.45</v>
+      </c>
+      <c r="EN53" s="7">
+        <v>55.8</v>
+      </c>
+      <c r="EO53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="EP53" s="7">
+        <v>36.5</v>
+      </c>
+      <c r="EQ53" s="7">
+        <v>22.25</v>
+      </c>
+      <c r="ER53" s="7">
+        <v>27.25</v>
+      </c>
+      <c r="ES53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="ET53" s="7">
+        <v>59.2</v>
+      </c>
+      <c r="EU53" s="7">
+        <v>36.5</v>
+      </c>
+      <c r="EV53" s="7">
+        <v>41.9</v>
+      </c>
+      <c r="EW53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="EX53" s="7">
+        <v>72.3</v>
+      </c>
+      <c r="EY53" s="7">
+        <v>36.5</v>
+      </c>
+      <c r="EZ53" s="7">
+        <v>45.9</v>
+      </c>
+      <c r="FA53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="FB53" s="7">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="FC53" s="7">
+        <v>38.5</v>
+      </c>
+      <c r="FD53" s="7">
+        <v>46.4</v>
+      </c>
+      <c r="FE53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="FF53" s="7">
+        <v>30</v>
+      </c>
+      <c r="FG53" s="7">
+        <v>37.5</v>
+      </c>
+      <c r="FH53" s="7">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="FI53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="FJ53" s="7">
+        <v>0</v>
+      </c>
+      <c r="FK53" s="7">
+        <v>0</v>
+      </c>
+      <c r="FL53" s="7">
+        <v>0</v>
+      </c>
+      <c r="FM53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="FN53" s="7">
+        <v>76.349999999999994</v>
+      </c>
+      <c r="FO53" s="7">
+        <v>44</v>
+      </c>
+      <c r="FP53" s="7">
+        <v>52.1</v>
+      </c>
+      <c r="FQ53" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="FR53" s="7">
+        <v>58.1</v>
+      </c>
+      <c r="FS53" s="7">
+        <v>42.9</v>
+      </c>
+      <c r="FT53" s="7">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:176" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B54" s="7">
+        <v>60</v>
+      </c>
+      <c r="C54" s="7">
+        <v>49.5</v>
+      </c>
+      <c r="D54" s="7">
+        <v>52.1</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" s="7">
+        <v>53.55</v>
+      </c>
+      <c r="G54" s="7">
+        <v>46.75</v>
+      </c>
+      <c r="H54" s="7">
+        <v>49.5</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="J54" s="7">
+        <v>66.5</v>
+      </c>
+      <c r="K54" s="7">
+        <v>48.5</v>
+      </c>
+      <c r="L54" s="7">
+        <v>53.8</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="N54" s="7">
+        <v>55.6</v>
+      </c>
+      <c r="O54" s="7">
+        <v>49.3</v>
+      </c>
+      <c r="P54" s="7">
+        <v>51.1</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="R54" s="7">
+        <v>64.95</v>
+      </c>
+      <c r="S54" s="7">
+        <v>49.5</v>
+      </c>
+      <c r="T54" s="7">
+        <v>54.15</v>
+      </c>
+      <c r="U54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="V54" s="7">
+        <v>61.3</v>
+      </c>
+      <c r="W54" s="7">
+        <v>43.2</v>
+      </c>
+      <c r="X54" s="7">
+        <v>48.7</v>
+      </c>
+      <c r="Y54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z54" s="7">
+        <v>63.7</v>
+      </c>
+      <c r="AA54" s="7">
+        <v>45</v>
+      </c>
+      <c r="AB54" s="7">
+        <v>48.5</v>
+      </c>
+      <c r="AC54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD54" s="7">
+        <v>62.8</v>
+      </c>
+      <c r="AE54" s="7">
+        <v>38.4</v>
+      </c>
+      <c r="AF54" s="7">
+        <v>44.2</v>
+      </c>
+      <c r="AG54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH54" s="7">
+        <v>58.2</v>
+      </c>
+      <c r="AI54" s="7">
+        <v>50.95</v>
+      </c>
+      <c r="AJ54" s="7">
+        <v>52.5</v>
+      </c>
+      <c r="AK54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL54" s="7">
+        <v>71.7</v>
+      </c>
+      <c r="AM54" s="7">
+        <v>53.5</v>
+      </c>
+      <c r="AN54" s="7">
+        <v>56.45</v>
+      </c>
+      <c r="AO54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AP54" s="7">
+        <v>67.2</v>
+      </c>
+      <c r="AQ54" s="7">
+        <v>50</v>
+      </c>
+      <c r="AR54" s="7">
+        <v>54.1</v>
+      </c>
+      <c r="AS54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT54" s="7">
+        <v>60.4</v>
+      </c>
+      <c r="AU54" s="7">
+        <v>46.1</v>
+      </c>
+      <c r="AV54" s="7">
+        <v>49.45</v>
+      </c>
+      <c r="AW54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AX54" s="7">
+        <v>75.8</v>
+      </c>
+      <c r="AY54" s="7">
+        <v>48.2</v>
+      </c>
+      <c r="AZ54" s="7">
+        <v>55.1</v>
+      </c>
+      <c r="BA54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="BB54" s="7">
+        <v>71.2</v>
+      </c>
+      <c r="BC54" s="7">
+        <v>50</v>
+      </c>
+      <c r="BD54" s="7">
+        <v>52.4</v>
+      </c>
+      <c r="BE54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="BF54" s="7">
+        <v>67.8</v>
+      </c>
+      <c r="BG54" s="7">
+        <v>49</v>
+      </c>
+      <c r="BH54" s="7">
+        <v>53.9</v>
+      </c>
+      <c r="BI54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="BJ54" s="7">
+        <v>63.85</v>
+      </c>
+      <c r="BK54" s="7">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="BL54" s="7">
+        <v>46.2</v>
+      </c>
+      <c r="BM54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="BN54" s="7">
+        <v>64.150000000000006</v>
+      </c>
+      <c r="BO54" s="7">
+        <v>47.15</v>
+      </c>
+      <c r="BP54" s="7">
+        <v>51</v>
+      </c>
+      <c r="BQ54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="BR54" s="7">
+        <v>62.2</v>
+      </c>
+      <c r="BS54" s="7">
+        <v>45</v>
+      </c>
+      <c r="BT54" s="7">
+        <v>51</v>
+      </c>
+      <c r="BU54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="BV54" s="7">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="BW54" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="BX54" s="7">
+        <v>48.1</v>
+      </c>
+      <c r="BY54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="BZ54" s="7">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="CA54" s="7">
+        <v>43.4</v>
+      </c>
+      <c r="CB54" s="7">
+        <v>48.8</v>
+      </c>
+      <c r="CC54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="CD54" s="7">
+        <v>63.1</v>
+      </c>
+      <c r="CE54" s="7">
+        <v>49.1</v>
+      </c>
+      <c r="CF54" s="7">
+        <v>48.4</v>
+      </c>
+      <c r="CG54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="CH54" s="7">
+        <v>48.3</v>
+      </c>
+      <c r="CI54" s="7">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="CJ54" s="7">
+        <v>37.6</v>
+      </c>
+      <c r="CK54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="CL54" s="7">
+        <v>45</v>
+      </c>
+      <c r="CM54" s="7">
+        <v>30.9</v>
+      </c>
+      <c r="CN54" s="7">
+        <v>34.4</v>
+      </c>
+      <c r="CO54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="CP54" s="7">
+        <v>55.75</v>
+      </c>
+      <c r="CQ54" s="7">
+        <v>30.9</v>
+      </c>
+      <c r="CR54" s="7">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="CS54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="CT54" s="7">
+        <v>60.05</v>
+      </c>
+      <c r="CU54" s="7">
+        <v>42.1</v>
+      </c>
+      <c r="CV54" s="7">
+        <v>47.2</v>
+      </c>
+      <c r="CW54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="CX54" s="7">
+        <v>57.5</v>
+      </c>
+      <c r="CY54" s="7">
+        <v>38.9</v>
+      </c>
+      <c r="CZ54" s="7">
+        <v>43.7</v>
+      </c>
+      <c r="DA54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="DB54" s="7">
+        <v>63.8</v>
+      </c>
+      <c r="DC54" s="7">
+        <v>45.5</v>
+      </c>
+      <c r="DD54" s="7">
+        <v>48.85</v>
+      </c>
+      <c r="DE54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="DF54" s="7">
+        <v>60.6</v>
+      </c>
+      <c r="DG54" s="7">
+        <v>47.5</v>
+      </c>
+      <c r="DH54" s="7">
+        <v>50.7</v>
+      </c>
+      <c r="DI54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="DJ54" s="7">
+        <v>54.3</v>
+      </c>
+      <c r="DK54" s="7">
+        <v>43.4</v>
+      </c>
+      <c r="DL54" s="7">
+        <v>47.9</v>
+      </c>
+      <c r="DM54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="DN54" s="7">
+        <v>56.05</v>
+      </c>
+      <c r="DO54" s="7">
+        <v>41.8</v>
+      </c>
+      <c r="DP54" s="7">
+        <v>46.15</v>
+      </c>
+      <c r="DQ54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="DR54" s="7">
+        <v>59.15</v>
+      </c>
+      <c r="DS54" s="7">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="DT54" s="7">
+        <v>47.5</v>
+      </c>
+      <c r="DU54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="DV54" s="7">
+        <v>54.95</v>
+      </c>
+      <c r="DW54" s="7">
+        <v>46.8</v>
+      </c>
+      <c r="DX54" s="7">
+        <v>49.65</v>
+      </c>
+      <c r="DY54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="DZ54" s="7">
+        <v>64.75</v>
+      </c>
+      <c r="EA54" s="7">
+        <v>34.9</v>
+      </c>
+      <c r="EB54" s="7">
+        <v>43.4</v>
+      </c>
+      <c r="EC54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="ED54" s="7">
+        <v>52.3</v>
+      </c>
+      <c r="EE54" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="EF54" s="7">
+        <v>31.8</v>
+      </c>
+      <c r="EG54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="EH54" s="7">
+        <v>49.75</v>
+      </c>
+      <c r="EI54" s="7">
+        <v>41.6</v>
+      </c>
+      <c r="EJ54" s="7">
+        <v>43.15</v>
+      </c>
+      <c r="EK54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="EL54" s="7">
+        <v>53.9</v>
+      </c>
+      <c r="EM54" s="7">
+        <v>54.5</v>
+      </c>
+      <c r="EN54" s="7">
+        <v>54.05</v>
+      </c>
+      <c r="EO54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="EP54" s="7">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="EQ54" s="7">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="ER54" s="7">
+        <v>40.6</v>
+      </c>
+      <c r="ES54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="ET54" s="7">
+        <v>59.6</v>
+      </c>
+      <c r="EU54" s="7">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="EV54" s="7">
+        <v>44.4</v>
+      </c>
+      <c r="EW54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="EX54" s="7">
+        <v>63.2</v>
+      </c>
+      <c r="EY54" s="7">
+        <v>38</v>
+      </c>
+      <c r="EZ54" s="7">
+        <v>43.7</v>
+      </c>
+      <c r="FA54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="FB54" s="7">
+        <v>64.150000000000006</v>
+      </c>
+      <c r="FC54" s="7">
+        <v>32.35</v>
+      </c>
+      <c r="FD54" s="7">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="FE54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="FF54" s="7">
+        <v>60.75</v>
+      </c>
+      <c r="FG54" s="7">
+        <v>46.75</v>
+      </c>
+      <c r="FH54" s="7">
+        <v>53.6</v>
+      </c>
+      <c r="FI54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="FJ54" s="7">
+        <v>49.15</v>
+      </c>
+      <c r="FK54" s="7">
+        <v>46.8</v>
+      </c>
+      <c r="FL54" s="7">
+        <v>45.6</v>
+      </c>
+      <c r="FM54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="FN54" s="7">
+        <v>60.1</v>
+      </c>
+      <c r="FO54" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="FP54" s="7">
+        <v>47.6</v>
+      </c>
+      <c r="FQ54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="FR54" s="7">
+        <v>59.1</v>
+      </c>
+      <c r="FS54" s="7">
+        <v>44</v>
+      </c>
+      <c r="FT54" s="7">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:176" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="7">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="C55" s="7">
+        <v>52.6</v>
+      </c>
+      <c r="D55" s="7">
+        <v>55.3</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F55" s="7">
+        <v>61.1</v>
+      </c>
+      <c r="G55" s="7">
+        <v>54.5</v>
+      </c>
+      <c r="H55" s="7">
+        <v>55.6</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="J55" s="7">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="K55" s="7">
+        <v>51.5</v>
+      </c>
+      <c r="L55" s="7">
+        <v>55.2</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="N55" s="7">
+        <v>61.85</v>
+      </c>
+      <c r="O55" s="7">
+        <v>58.2</v>
+      </c>
+      <c r="P55" s="7">
+        <v>58.6</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="R55" s="7">
+        <v>68.8</v>
+      </c>
+      <c r="S55" s="7">
+        <v>53.8</v>
+      </c>
+      <c r="T55" s="7">
+        <v>57.3</v>
+      </c>
+      <c r="U55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="V55" s="7">
+        <v>64.5</v>
+      </c>
+      <c r="W55" s="7">
+        <v>52.8</v>
+      </c>
+      <c r="X55" s="7">
+        <v>55.3</v>
+      </c>
+      <c r="Y55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z55" s="7">
+        <v>64.3</v>
+      </c>
+      <c r="AA55" s="7">
+        <v>50.6</v>
+      </c>
+      <c r="AB55" s="7">
+        <v>53.95</v>
+      </c>
+      <c r="AC55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD55" s="7">
+        <v>60</v>
+      </c>
+      <c r="AE55" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="AF55" s="7">
+        <v>50.3</v>
+      </c>
+      <c r="AG55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH55" s="7">
+        <v>57.4</v>
+      </c>
+      <c r="AI55" s="7">
+        <v>52.1</v>
+      </c>
+      <c r="AJ55" s="7">
+        <v>53.7</v>
+      </c>
+      <c r="AK55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL55" s="7">
+        <v>71.2</v>
+      </c>
+      <c r="AM55" s="7">
+        <v>56.7</v>
+      </c>
+      <c r="AN55" s="7">
+        <v>60.2</v>
+      </c>
+      <c r="AO55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP55" s="7">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="AQ55" s="7">
+        <v>51.7</v>
+      </c>
+      <c r="AR55" s="7">
+        <v>55.9</v>
+      </c>
+      <c r="AS55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT55" s="7">
+        <v>66.2</v>
+      </c>
+      <c r="AU55" s="7">
+        <v>51.45</v>
+      </c>
+      <c r="AV55" s="7">
+        <v>55.1</v>
+      </c>
+      <c r="AW55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX55" s="7">
+        <v>72.3</v>
+      </c>
+      <c r="AY55" s="7">
+        <v>52.7</v>
+      </c>
+      <c r="AZ55" s="7">
+        <v>57.6</v>
+      </c>
+      <c r="BA55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB55" s="7">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="BC55" s="7">
+        <v>51</v>
+      </c>
+      <c r="BD55" s="7">
+        <v>56.9</v>
+      </c>
+      <c r="BE55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF55" s="7">
+        <v>71.650000000000006</v>
+      </c>
+      <c r="BG55" s="7">
+        <v>55</v>
+      </c>
+      <c r="BH55" s="7">
+        <v>59</v>
+      </c>
+      <c r="BI55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="BJ55" s="7">
+        <v>67.2</v>
+      </c>
+      <c r="BK55" s="7">
+        <v>46.4</v>
+      </c>
+      <c r="BL55" s="7">
+        <v>51.2</v>
+      </c>
+      <c r="BM55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="BN55" s="7">
+        <v>68.5</v>
+      </c>
+      <c r="BO55" s="7">
+        <v>51.8</v>
+      </c>
+      <c r="BP55" s="7">
+        <v>55.2</v>
+      </c>
+      <c r="BQ55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="BR55" s="7">
+        <v>68.95</v>
+      </c>
+      <c r="BS55" s="7">
+        <v>53</v>
+      </c>
+      <c r="BT55" s="7">
+        <v>57.5</v>
+      </c>
+      <c r="BU55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="BV55" s="7">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="BW55" s="7">
+        <v>47</v>
+      </c>
+      <c r="BX55" s="7">
+        <v>52.3</v>
+      </c>
+      <c r="BY55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="BZ55" s="7">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="CA55" s="7">
+        <v>52.3</v>
+      </c>
+      <c r="CB55" s="7">
+        <v>56.3</v>
+      </c>
+      <c r="CC55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="CD55" s="7">
+        <v>67.5</v>
+      </c>
+      <c r="CE55" s="7">
+        <v>57.3</v>
+      </c>
+      <c r="CF55" s="7">
+        <v>57.4</v>
+      </c>
+      <c r="CG55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="CH55" s="7">
+        <v>63.8</v>
+      </c>
+      <c r="CI55" s="7">
+        <v>49.1</v>
+      </c>
+      <c r="CJ55" s="7">
+        <v>53.8</v>
+      </c>
+      <c r="CK55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="CL55" s="7">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="CM55" s="7">
+        <v>37</v>
+      </c>
+      <c r="CN55" s="7">
+        <v>45.2</v>
+      </c>
+      <c r="CO55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="CP55" s="7">
+        <v>63.6</v>
+      </c>
+      <c r="CQ55" s="7">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="CR55" s="7">
+        <v>47.5</v>
+      </c>
+      <c r="CS55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="CT55" s="7">
+        <v>62.3</v>
+      </c>
+      <c r="CU55" s="7">
+        <v>44.1</v>
+      </c>
+      <c r="CV55" s="7">
+        <v>49.4</v>
+      </c>
+      <c r="CW55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="CX55" s="7">
+        <v>63.7</v>
+      </c>
+      <c r="CY55" s="7">
+        <v>46.1</v>
+      </c>
+      <c r="CZ55" s="7">
+        <v>50.2</v>
+      </c>
+      <c r="DA55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="DB55" s="7">
+        <v>62.35</v>
+      </c>
+      <c r="DC55" s="7">
+        <v>49.6</v>
+      </c>
+      <c r="DD55" s="7">
+        <v>52.1</v>
+      </c>
+      <c r="DE55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="DF55" s="7">
+        <v>63.75</v>
+      </c>
+      <c r="DG55" s="7">
+        <v>52.6</v>
+      </c>
+      <c r="DH55" s="7">
+        <v>54.95</v>
+      </c>
+      <c r="DI55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="DJ55" s="7">
+        <v>63.85</v>
+      </c>
+      <c r="DK55" s="7">
+        <v>48.6</v>
+      </c>
+      <c r="DL55" s="7">
+        <v>52.8</v>
+      </c>
+      <c r="DM55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="DN55" s="7">
+        <v>60</v>
+      </c>
+      <c r="DO55" s="7">
+        <v>49.5</v>
+      </c>
+      <c r="DP55" s="7">
+        <v>51.7</v>
+      </c>
+      <c r="DQ55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="DR55" s="7">
+        <v>65.05</v>
+      </c>
+      <c r="DS55" s="7">
+        <v>50</v>
+      </c>
+      <c r="DT55" s="7">
+        <v>53.5</v>
+      </c>
+      <c r="DU55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="DV55" s="7">
+        <v>67.3</v>
+      </c>
+      <c r="DW55" s="7">
+        <v>60.7</v>
+      </c>
+      <c r="DX55" s="7">
+        <v>61.4</v>
+      </c>
+      <c r="DY55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="DZ55" s="7">
+        <v>64.2</v>
+      </c>
+      <c r="EA55" s="7">
+        <v>45.25</v>
+      </c>
+      <c r="EB55" s="7">
+        <v>49.8</v>
+      </c>
+      <c r="EC55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="ED55" s="7">
+        <v>58</v>
+      </c>
+      <c r="EE55" s="7">
+        <v>31.55</v>
+      </c>
+      <c r="EF55" s="7">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="EG55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="EH55" s="7">
+        <v>65.3</v>
+      </c>
+      <c r="EI55" s="7">
+        <v>52.1</v>
+      </c>
+      <c r="EJ55" s="7">
+        <v>54.9</v>
+      </c>
+      <c r="EK55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="EL55" s="7">
+        <v>59.1</v>
+      </c>
+      <c r="EM55" s="7">
+        <v>59.5</v>
+      </c>
+      <c r="EN55" s="7">
+        <v>59.2</v>
+      </c>
+      <c r="EO55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="EP55" s="7">
+        <v>63.9</v>
+      </c>
+      <c r="EQ55" s="7">
+        <v>40.4</v>
+      </c>
+      <c r="ER55" s="7">
+        <v>45.9</v>
+      </c>
+      <c r="ES55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="ET55" s="7">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="EU55" s="7">
+        <v>44.8</v>
+      </c>
+      <c r="EV55" s="7">
+        <v>48.3</v>
+      </c>
+      <c r="EW55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="EX55" s="7">
+        <v>66.150000000000006</v>
+      </c>
+      <c r="EY55" s="7">
+        <v>49.2</v>
+      </c>
+      <c r="EZ55" s="7">
+        <v>52.4</v>
+      </c>
+      <c r="FA55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="FB55" s="7">
+        <v>63.15</v>
+      </c>
+      <c r="FC55" s="7">
+        <v>43.75</v>
+      </c>
+      <c r="FD55" s="7">
+        <v>47.6</v>
+      </c>
+      <c r="FE55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="FF55" s="7">
+        <v>59.95</v>
+      </c>
+      <c r="FG55" s="7">
+        <v>57.95</v>
+      </c>
+      <c r="FH55" s="7">
+        <v>57.3</v>
+      </c>
+      <c r="FI55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="FJ55" s="7">
+        <v>63.4</v>
+      </c>
+      <c r="FK55" s="7">
+        <v>62.3</v>
+      </c>
+      <c r="FL55" s="7">
+        <v>62.15</v>
+      </c>
+      <c r="FM55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="FN55" s="7">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="FO55" s="7">
+        <v>47.4</v>
+      </c>
+      <c r="FP55" s="7">
+        <v>49.3</v>
+      </c>
+      <c r="FQ55" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="FR55" s="7">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="FS55" s="7">
+        <v>51</v>
+      </c>
+      <c r="FT55" s="7">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:176" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B56" s="7">
+        <v>64.7</v>
+      </c>
+      <c r="C56" s="7">
+        <v>48.5</v>
+      </c>
+      <c r="D56" s="7">
+        <v>56.3</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F56" s="7">
+        <v>52</v>
+      </c>
+      <c r="G56" s="7">
+        <v>43.5</v>
+      </c>
+      <c r="H56" s="7">
+        <v>43.6</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J56" s="7">
+        <v>61.4</v>
+      </c>
+      <c r="K56" s="7">
+        <v>45.5</v>
+      </c>
+      <c r="L56" s="7">
+        <v>49.8</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="N56" s="7">
+        <v>56.95</v>
+      </c>
+      <c r="O56" s="7">
+        <v>53.7</v>
+      </c>
+      <c r="P56" s="7">
+        <v>52.95</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="R56" s="7">
+        <v>67.5</v>
+      </c>
+      <c r="S56" s="7">
+        <v>48.4</v>
+      </c>
+      <c r="T56" s="7">
+        <v>52.25</v>
+      </c>
+      <c r="U56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="V56" s="7">
+        <v>60.5</v>
+      </c>
+      <c r="W56" s="7">
+        <v>45.6</v>
+      </c>
+      <c r="X56" s="7">
+        <v>49.1</v>
+      </c>
+      <c r="Y56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z56" s="7">
+        <v>63.9</v>
+      </c>
+      <c r="AA56" s="7">
+        <v>46.25</v>
+      </c>
+      <c r="AB56" s="7">
+        <v>52.45</v>
+      </c>
+      <c r="AC56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD56" s="7">
+        <v>52.9</v>
+      </c>
+      <c r="AE56" s="7">
+        <v>42.4</v>
+      </c>
+      <c r="AF56" s="7">
+        <v>47.9</v>
+      </c>
+      <c r="AG56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH56" s="7">
+        <v>51</v>
+      </c>
+      <c r="AI56" s="7">
+        <v>46.3</v>
+      </c>
+      <c r="AJ56" s="7">
+        <v>47</v>
+      </c>
+      <c r="AK56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL56" s="7">
+        <v>66.5</v>
+      </c>
+      <c r="AM56" s="7">
+        <v>47</v>
+      </c>
+      <c r="AN56" s="7">
+        <v>53.7</v>
+      </c>
+      <c r="AO56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP56" s="7">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="AQ56" s="7">
+        <v>48</v>
+      </c>
+      <c r="AR56" s="7">
+        <v>51.3</v>
+      </c>
+      <c r="AS56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AT56" s="7">
+        <v>67.7</v>
+      </c>
+      <c r="AU56" s="7">
+        <v>45</v>
+      </c>
+      <c r="AV56" s="7">
+        <v>50</v>
+      </c>
+      <c r="AW56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AX56" s="7">
+        <v>72.25</v>
+      </c>
+      <c r="AY56" s="7">
+        <v>43.85</v>
+      </c>
+      <c r="AZ56" s="7">
+        <v>50.75</v>
+      </c>
+      <c r="BA56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="BB56" s="7">
+        <v>63.1</v>
+      </c>
+      <c r="BC56" s="7">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="BD56" s="7">
+        <v>45.5</v>
+      </c>
+      <c r="BE56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF56" s="7">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="BG56" s="7">
+        <v>44.5</v>
+      </c>
+      <c r="BH56" s="7">
+        <v>51.5</v>
+      </c>
+      <c r="BI56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="BJ56" s="7">
+        <v>61.7</v>
+      </c>
+      <c r="BK56" s="7">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="BL56" s="7">
+        <v>46.3</v>
+      </c>
+      <c r="BM56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN56" s="7">
+        <v>67.849999999999994</v>
+      </c>
+      <c r="BO56" s="7">
+        <v>49.3</v>
+      </c>
+      <c r="BP56" s="7">
+        <v>53.4</v>
+      </c>
+      <c r="BQ56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR56" s="7">
+        <v>63.8</v>
+      </c>
+      <c r="BS56" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="BT56" s="7">
+        <v>48.1</v>
+      </c>
+      <c r="BU56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="BV56" s="7">
+        <v>62.3</v>
+      </c>
+      <c r="BW56" s="7">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="BX56" s="7">
+        <v>45.1</v>
+      </c>
+      <c r="BY56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="BZ56" s="7">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="CA56" s="7">
+        <v>44.75</v>
+      </c>
+      <c r="CB56" s="7">
+        <v>51.35</v>
+      </c>
+      <c r="CC56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="CD56" s="7">
+        <v>68.95</v>
+      </c>
+      <c r="CE56" s="7">
+        <v>27.4</v>
+      </c>
+      <c r="CF56" s="7">
+        <v>39.15</v>
+      </c>
+      <c r="CG56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="CH56" s="7">
+        <v>62.6</v>
+      </c>
+      <c r="CI56" s="7">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="CJ56" s="7">
+        <v>44.1</v>
+      </c>
+      <c r="CK56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="CL56" s="7">
+        <v>67.95</v>
+      </c>
+      <c r="CM56" s="7">
+        <v>43.6</v>
+      </c>
+      <c r="CN56" s="7">
+        <v>48.15</v>
+      </c>
+      <c r="CO56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="CP56" s="7">
+        <v>54.15</v>
+      </c>
+      <c r="CQ56" s="7">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="CR56" s="7">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="CS56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="CT56" s="7">
+        <v>59.55</v>
+      </c>
+      <c r="CU56" s="7">
+        <v>41.5</v>
+      </c>
+      <c r="CV56" s="7">
+        <v>44.3</v>
+      </c>
+      <c r="CW56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="CX56" s="7">
+        <v>63.2</v>
+      </c>
+      <c r="CY56" s="7">
+        <v>43.2</v>
+      </c>
+      <c r="CZ56" s="7">
+        <v>47.3</v>
+      </c>
+      <c r="DA56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="DB56" s="7">
+        <v>52.5</v>
+      </c>
+      <c r="DC56" s="7">
+        <v>41.4</v>
+      </c>
+      <c r="DD56" s="7">
+        <v>42.1</v>
+      </c>
+      <c r="DE56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="DF56" s="7">
+        <v>61.9</v>
+      </c>
+      <c r="DG56" s="7">
+        <v>48.8</v>
+      </c>
+      <c r="DH56" s="7">
+        <v>52.4</v>
+      </c>
+      <c r="DI56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="DJ56" s="7">
+        <v>59.3</v>
+      </c>
+      <c r="DK56" s="7">
+        <v>54.8</v>
+      </c>
+      <c r="DL56" s="7">
+        <v>55</v>
+      </c>
+      <c r="DM56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="DN56" s="7">
+        <v>52.15</v>
+      </c>
+      <c r="DO56" s="7">
+        <v>45.5</v>
+      </c>
+      <c r="DP56" s="7">
+        <v>46.7</v>
+      </c>
+      <c r="DQ56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="DR56" s="7">
+        <v>59.35</v>
+      </c>
+      <c r="DS56" s="7">
+        <v>48.05</v>
+      </c>
+      <c r="DT56" s="7">
+        <v>50.7</v>
+      </c>
+      <c r="DU56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="DV56" s="7">
+        <v>60.55</v>
+      </c>
+      <c r="DW56" s="7">
+        <v>51.6</v>
+      </c>
+      <c r="DX56" s="7">
+        <v>52.4</v>
+      </c>
+      <c r="DY56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="DZ56" s="7">
+        <v>58.35</v>
+      </c>
+      <c r="EA56" s="7">
+        <v>37.4</v>
+      </c>
+      <c r="EB56" s="7">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="EC56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="ED56" s="7">
+        <v>50.2</v>
+      </c>
+      <c r="EE56" s="7">
+        <v>29.9</v>
+      </c>
+      <c r="EF56" s="7">
+        <v>33.6</v>
+      </c>
+      <c r="EG56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="EH56" s="7">
+        <v>63.65</v>
+      </c>
+      <c r="EI56" s="7">
+        <v>49.05</v>
+      </c>
+      <c r="EJ56" s="7">
+        <v>51.9</v>
+      </c>
+      <c r="EK56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="EL56" s="7">
+        <v>55.55</v>
+      </c>
+      <c r="EM56" s="7">
+        <v>57.6</v>
+      </c>
+      <c r="EN56" s="7">
+        <v>55.85</v>
+      </c>
+      <c r="EO56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="EP56" s="7">
+        <v>57.9</v>
+      </c>
+      <c r="EQ56" s="7">
+        <v>36.1</v>
+      </c>
+      <c r="ER56" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="ES56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="ET56" s="7">
+        <v>58</v>
+      </c>
+      <c r="EU56" s="7">
+        <v>41.7</v>
+      </c>
+      <c r="EV56" s="7">
+        <v>46.6</v>
+      </c>
+      <c r="EW56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="EX56" s="7">
+        <v>76</v>
+      </c>
+      <c r="EY56" s="7">
+        <v>49.2</v>
+      </c>
+      <c r="EZ56" s="7">
+        <v>52.9</v>
+      </c>
+      <c r="FA56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="FB56" s="7">
+        <v>61.2</v>
+      </c>
+      <c r="FC56" s="7">
+        <v>40</v>
+      </c>
+      <c r="FD56" s="7">
+        <v>43.7</v>
+      </c>
+      <c r="FE56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="FF56" s="7">
+        <v>59.05</v>
+      </c>
+      <c r="FG56" s="7">
+        <v>52.15</v>
+      </c>
+      <c r="FH56" s="7">
+        <v>55.15</v>
+      </c>
+      <c r="FI56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="FJ56" s="7">
+        <v>61</v>
+      </c>
+      <c r="FK56" s="7">
+        <v>51</v>
+      </c>
+      <c r="FL56" s="7">
+        <v>55.4</v>
+      </c>
+      <c r="FM56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="FN56" s="7">
+        <v>48.5</v>
+      </c>
+      <c r="FO56" s="7">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="FP56" s="7">
+        <v>46.4</v>
+      </c>
+      <c r="FQ56" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="FR56" s="7">
+        <v>61</v>
+      </c>
+      <c r="FS56" s="7">
+        <v>44.8</v>
+      </c>
+      <c r="FT56" s="7">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:176" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B57" s="7">
+        <v>63.7</v>
+      </c>
+      <c r="C57" s="7">
+        <v>49.8</v>
+      </c>
+      <c r="D57" s="7">
+        <v>52.5</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F57" s="7">
+        <v>58.35</v>
+      </c>
+      <c r="G57" s="7">
+        <v>52.35</v>
+      </c>
+      <c r="H57" s="7">
+        <v>52.1</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J57" s="7">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="K57" s="7">
+        <v>49.5</v>
+      </c>
+      <c r="L57" s="7">
+        <v>54.1</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="N57" s="7">
+        <v>59.4</v>
+      </c>
+      <c r="O57" s="7">
+        <v>54.7</v>
+      </c>
+      <c r="P57" s="7">
+        <v>58.8</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="R57" s="7">
+        <v>65.75</v>
+      </c>
+      <c r="S57" s="7">
+        <v>50.15</v>
+      </c>
+      <c r="T57" s="7">
+        <v>54.15</v>
+      </c>
+      <c r="U57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="V57" s="7">
+        <v>63.1</v>
+      </c>
+      <c r="W57" s="7">
+        <v>48.8</v>
+      </c>
+      <c r="X57" s="7">
+        <v>51.9</v>
+      </c>
+      <c r="Y57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z57" s="7">
+        <v>62.55</v>
+      </c>
+      <c r="AA57" s="7">
+        <v>52.3</v>
+      </c>
+      <c r="AB57" s="7">
+        <v>52</v>
+      </c>
+      <c r="AC57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD57" s="7">
+        <v>56.3</v>
+      </c>
+      <c r="AE57" s="7">
+        <v>40.4</v>
+      </c>
+      <c r="AF57" s="7">
+        <v>43.4</v>
+      </c>
+      <c r="AG57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH57" s="7">
+        <v>56.6</v>
+      </c>
+      <c r="AI57" s="7">
+        <v>51.1</v>
+      </c>
+      <c r="AJ57" s="7">
+        <v>52.9</v>
+      </c>
+      <c r="AK57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL57" s="7">
+        <v>71.8</v>
+      </c>
+      <c r="AM57" s="7">
+        <v>49.95</v>
+      </c>
+      <c r="AN57" s="7">
+        <v>54.25</v>
+      </c>
+      <c r="AO57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="AP57" s="7">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="AQ57" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="AR57" s="7">
+        <v>56.3</v>
+      </c>
+      <c r="AS57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="AT57" s="7">
+        <v>65</v>
+      </c>
+      <c r="AU57" s="7">
+        <v>46</v>
+      </c>
+      <c r="AV57" s="7">
+        <v>50.8</v>
+      </c>
+      <c r="AW57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="AX57" s="7">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="AY57" s="7">
+        <v>47.3</v>
+      </c>
+      <c r="AZ57" s="7">
+        <v>54.3</v>
+      </c>
+      <c r="BA57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="BB57" s="7">
+        <v>69.45</v>
+      </c>
+      <c r="BC57" s="7">
+        <v>44.9</v>
+      </c>
+      <c r="BD57" s="7">
+        <v>50.9</v>
+      </c>
+      <c r="BE57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="BF57" s="7">
+        <v>70.3</v>
+      </c>
+      <c r="BG57" s="7">
+        <v>51.5</v>
+      </c>
+      <c r="BH57" s="7">
+        <v>55.2</v>
+      </c>
+      <c r="BI57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="BJ57" s="7">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="BK57" s="7">
+        <v>45.2</v>
+      </c>
+      <c r="BL57" s="7">
+        <v>49.5</v>
+      </c>
+      <c r="BM57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="BN57" s="7">
+        <v>66.5</v>
+      </c>
+      <c r="BO57" s="7">
+        <v>44.5</v>
+      </c>
+      <c r="BP57" s="7">
+        <v>48.2</v>
+      </c>
+      <c r="BQ57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="BR57" s="7">
+        <v>67.05</v>
+      </c>
+      <c r="BS57" s="7">
+        <v>49.4</v>
+      </c>
+      <c r="BT57" s="7">
+        <v>53.25</v>
+      </c>
+      <c r="BU57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="BV57" s="7">
+        <v>70.5</v>
+      </c>
+      <c r="BW57" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="BX57" s="7">
+        <v>48.7</v>
+      </c>
+      <c r="BY57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="BZ57" s="7">
+        <v>65.75</v>
+      </c>
+      <c r="CA57" s="7">
+        <v>47.45</v>
+      </c>
+      <c r="CB57" s="7">
+        <v>52.95</v>
+      </c>
+      <c r="CC57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="CD57" s="7">
+        <v>69.5</v>
+      </c>
+      <c r="CE57" s="7">
+        <v>61.1</v>
+      </c>
+      <c r="CF57" s="7">
+        <v>62.7</v>
+      </c>
+      <c r="CG57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="CH57" s="7">
+        <v>63.2</v>
+      </c>
+      <c r="CI57" s="7">
+        <v>44.4</v>
+      </c>
+      <c r="CJ57" s="7">
+        <v>45.4</v>
+      </c>
+      <c r="CK57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="CL57" s="7">
+        <v>60.1</v>
+      </c>
+      <c r="CM57" s="7">
+        <v>35.4</v>
+      </c>
+      <c r="CN57" s="7">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="CO57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="CP57" s="7">
+        <v>60.3</v>
+      </c>
+      <c r="CQ57" s="7">
+        <v>33.6</v>
+      </c>
+      <c r="CR57" s="7">
+        <v>41</v>
+      </c>
+      <c r="CS57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="CT57" s="7">
+        <v>58.05</v>
+      </c>
+      <c r="CU57" s="7">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="CV57" s="7">
+        <v>45.35</v>
+      </c>
+      <c r="CW57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="CX57" s="7">
+        <v>60.2</v>
+      </c>
+      <c r="CY57" s="7">
+        <v>42.7</v>
+      </c>
+      <c r="CZ57" s="7">
+        <v>46.7</v>
+      </c>
+      <c r="DA57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="DB57" s="7">
+        <v>65.05</v>
+      </c>
+      <c r="DC57" s="7">
+        <v>49.6</v>
+      </c>
+      <c r="DD57" s="7">
+        <v>53</v>
+      </c>
+      <c r="DE57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="DF57" s="7">
+        <v>63.95</v>
+      </c>
+      <c r="DG57" s="7">
+        <v>50.5</v>
+      </c>
+      <c r="DH57" s="7">
+        <v>54.1</v>
+      </c>
+      <c r="DI57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="DJ57" s="7">
+        <v>63.65</v>
+      </c>
+      <c r="DK57" s="7">
+        <v>55.1</v>
+      </c>
+      <c r="DL57" s="7">
+        <v>58.55</v>
+      </c>
+      <c r="DM57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="DN57" s="7">
+        <v>60</v>
+      </c>
+      <c r="DO57" s="7">
+        <v>47</v>
+      </c>
+      <c r="DP57" s="7">
+        <v>50</v>
+      </c>
+      <c r="DQ57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="DR57" s="7">
+        <v>59.2</v>
+      </c>
+      <c r="DS57" s="7">
+        <v>45</v>
+      </c>
+      <c r="DT57" s="7">
+        <v>49</v>
+      </c>
+      <c r="DU57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="DV57" s="7">
+        <v>63.5</v>
+      </c>
+      <c r="DW57" s="7">
+        <v>53.05</v>
+      </c>
+      <c r="DX57" s="7">
+        <v>54.8</v>
+      </c>
+      <c r="DY57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="DZ57" s="7">
+        <v>58.3</v>
+      </c>
+      <c r="EA57" s="7">
+        <v>37.4</v>
+      </c>
+      <c r="EB57" s="7">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="EC57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="ED57" s="7">
+        <v>56.1</v>
+      </c>
+      <c r="EE57" s="7">
+        <v>28.25</v>
+      </c>
+      <c r="EF57" s="7">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="EG57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="EH57" s="7">
+        <v>57.7</v>
+      </c>
+      <c r="EI57" s="7">
+        <v>49.05</v>
+      </c>
+      <c r="EJ57" s="7">
+        <v>52.65</v>
+      </c>
+      <c r="EK57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="EL57" s="7">
+        <v>56</v>
+      </c>
+      <c r="EM57" s="7">
+        <v>57.1</v>
+      </c>
+      <c r="EN57" s="7">
+        <v>57.1</v>
+      </c>
+      <c r="EO57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="EP57" s="7">
+        <v>62.1</v>
+      </c>
+      <c r="EQ57" s="7">
+        <v>36.1</v>
+      </c>
+      <c r="ER57" s="7">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="ES57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="ET57" s="7">
+        <v>61.5</v>
+      </c>
+      <c r="EU57" s="7">
+        <v>41.65</v>
+      </c>
+      <c r="EV57" s="7">
+        <v>46.05</v>
+      </c>
+      <c r="EW57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="EX57" s="7">
+        <v>61.6</v>
+      </c>
+      <c r="EY57" s="7">
+        <v>43.3</v>
+      </c>
+      <c r="EZ57" s="7">
+        <v>48.1</v>
+      </c>
+      <c r="FA57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="FB57" s="7">
+        <v>62.05</v>
+      </c>
+      <c r="FC57" s="7">
+        <v>42.75</v>
+      </c>
+      <c r="FD57" s="7">
+        <v>46.25</v>
+      </c>
+      <c r="FE57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="FF57" s="7">
+        <v>63.6</v>
+      </c>
+      <c r="FG57" s="7">
+        <v>49.4</v>
+      </c>
+      <c r="FH57" s="7">
+        <v>50.75</v>
+      </c>
+      <c r="FI57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="FJ57" s="7">
+        <v>54.3</v>
+      </c>
+      <c r="FK57" s="7">
+        <v>51.4</v>
+      </c>
+      <c r="FL57" s="7">
+        <v>53.65</v>
+      </c>
+      <c r="FM57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="FN57" s="7">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="FO57" s="7">
+        <v>44.4</v>
+      </c>
+      <c r="FP57" s="7">
+        <v>47.6</v>
+      </c>
+      <c r="FQ57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="FR57" s="7">
+        <v>64.05</v>
+      </c>
+      <c r="FS57" s="7">
+        <v>47.5</v>
+      </c>
+      <c r="FT57" s="7">
+        <v>51.15</v>
       </c>
     </row>
   </sheetData>
